--- a/Data/Process Parameters and Properties LPBF.xlsx
+++ b/Data/Process Parameters and Properties LPBF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/rww21_ic_ac_uk/Documents/ML Code/For Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/rww21_ic_ac_uk/Documents/ML Code/For Paper/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="791" documentId="11_8FFD4AA7BD369877812CA3E78F10F6D4BABD746C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3D5392-8E86-4FAA-A917-10E8A0BFE0D5}"/>
+  <xr:revisionPtr revIDLastSave="793" documentId="11_8FFD4AA7BD369877812CA3E78F10F6D4BABD746C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58464702-0AB9-4133-B827-519D0C4750E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,8 +40,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Claudia Santos</author>
-    <author>Jiwei Qin</author>
     <author>tc={8F4AC079-6B3F-4606-AF6C-F72B7FA75AB9}</author>
     <author>tc={966B37AB-759C-4BE6-9319-F4FD9D7D53D0}</author>
     <author>tc={4EF6F7CB-5833-43AA-A44A-31D119544DAA}</author>
@@ -49,67 +47,7 @@
     <author>tc={7149C630-1806-42FE-88D9-3A38ABF1CC0C}</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{FFFF70A3-4F35-422A-8BBD-A22B3EDE3594}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Claudia Santos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Based on the Andrew Number LED=P/(v*t)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{398FC038-8B7A-4AC5-9BE9-25200FF48750}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jiwei Qin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-VED=P/vht
-where P is the laser power (W), v the scan speed (mm/s), h the hatching space (mm), and t the layer thickness (mm). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,7 +55,7 @@
     followed by 760ºC/10h/FC at 55ºC/h to 650ºC/8h/AC</t>
       </text>
     </comment>
-    <comment ref="AL9" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AL9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +63,7 @@
     followed by 760ºC/10h/FC at 55ºC/h to 650ºC/8h/AC</t>
       </text>
     </comment>
-    <comment ref="AL12" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="AL12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +71,7 @@
     followed by 760ºC/10h/FC at 55ºC/h to 650ºC/8h/AC</t>
       </text>
     </comment>
-    <comment ref="AL15" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AL15" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +79,7 @@
     followed by 760ºC/10h/FC at 55ºC/h to 650ºC/8h/AC</t>
       </text>
     </comment>
-    <comment ref="AJ147" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AJ147" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -755,9 +693,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,19 +752,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -849,21 +774,6 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1037,127 +947,124 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,26 +1076,29 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1620,10 +1530,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -1639,7 +1549,7 @@
     <col min="54" max="56" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="75">
+    <row r="1" spans="1:57" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1812,17 +1722,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="49">
         <v>2017</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="37" t="s">
@@ -1935,17 +1845,17 @@
         <v>15.590909090909092</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>2017</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="37" t="s">
@@ -1995,7 +1905,7 @@
         <v>2.9761904761904758</v>
       </c>
       <c r="Y3" s="35">
-        <f t="shared" ref="Y2:Y14" si="3">I3/(J3*K3*L3)*10^6</f>
+        <f t="shared" ref="Y3:Y14" si="3">I3/(J3*K3*L3)*10^6</f>
         <v>59.523809523809526</v>
       </c>
       <c r="Z3" s="34"/>
@@ -2066,17 +1976,17 @@
         <v>16.352941176470587</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>2017</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="37" t="s">
@@ -2199,17 +2109,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>2017</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="37" t="s">
@@ -2342,17 +2252,17 @@
         <v>12.157894736842104</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>2017</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="37" t="s">
@@ -2465,17 +2375,17 @@
         <v>15.952380952380953</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>2017</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="37" t="s">
@@ -2596,17 +2506,17 @@
         <v>30.857142857142858</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>2017</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="37" t="s">
@@ -2729,17 +2639,17 @@
         <v>9.0294117647058822</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>2017</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="37" t="s">
@@ -2872,17 +2782,17 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>2017</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="37" t="s">
@@ -2989,17 +2899,17 @@
         <v>6.9642857142857144</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>2017</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="37" t="s">
@@ -3116,17 +3026,17 @@
         <v>7.9655172413793105</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>2017</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -3253,17 +3163,17 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>2017</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -3370,17 +3280,17 @@
         <v>7.709677419354839</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>2017</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="37" t="s">
@@ -3497,17 +3407,17 @@
         <v>6.6428571428571432</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>2017</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="37" t="s">
@@ -3634,7 +3544,7 @@
         <v>7.8235294117647056</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>61</v>
       </c>
@@ -3644,7 +3554,7 @@
       <c r="C16" s="40">
         <v>2016</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="53" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="37" t="s">
@@ -3740,7 +3650,7 @@
         <v>2.1836734693877551</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>61</v>
       </c>
@@ -3750,7 +3660,7 @@
       <c r="C17" s="40">
         <v>2016</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="37" t="s">
         <v>72</v>
       </c>
@@ -3844,7 +3754,7 @@
         <v>2.7419354838709675</v>
       </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>61</v>
       </c>
@@ -3854,7 +3764,7 @@
       <c r="C18" s="40">
         <v>2016</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="53" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="37" t="s">
@@ -3952,7 +3862,7 @@
         <v>3.4202898550724639</v>
       </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>61</v>
       </c>
@@ -3962,7 +3872,7 @@
       <c r="C19" s="40">
         <v>2016</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="37" t="s">
         <v>34</v>
       </c>
@@ -4058,7 +3968,7 @@
         <v>3.4202898550724639</v>
       </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>61</v>
       </c>
@@ -4068,7 +3978,7 @@
       <c r="C20" s="40">
         <v>2016</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="37" t="s">
         <v>34</v>
       </c>
@@ -4164,7 +4074,7 @@
         <v>3.652173913043478</v>
       </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>61</v>
       </c>
@@ -4174,7 +4084,7 @@
       <c r="C21" s="40">
         <v>2014</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="53" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="37" t="s">
@@ -4270,7 +4180,7 @@
         <v>7.3456790123456797</v>
       </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>61</v>
       </c>
@@ -4280,7 +4190,7 @@
       <c r="C22" s="40">
         <v>2014</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="37" t="s">
         <v>74</v>
       </c>
@@ -4374,7 +4284,7 @@
         <v>7.8915662650602405</v>
       </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>61</v>
       </c>
@@ -4384,7 +4294,7 @@
       <c r="C23" s="40">
         <v>2014</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="37" t="s">
         <v>74</v>
       </c>
@@ -4478,7 +4388,7 @@
         <v>15.375</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="135">
+    <row r="24" spans="1:57" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>61</v>
       </c>
@@ -4488,7 +4398,7 @@
       <c r="C24" s="40">
         <v>2017</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="38" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="36" t="s">
@@ -4508,7 +4418,7 @@
       <c r="K24" s="37">
         <v>25</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="41">
         <v>84</v>
       </c>
       <c r="M24" s="37">
@@ -4582,7 +4492,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="45">
+    <row r="25" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>61</v>
       </c>
@@ -4592,7 +4502,7 @@
       <c r="C25" s="40">
         <v>2018</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="53" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="36" t="s">
@@ -4612,7 +4522,7 @@
       <c r="K25" s="37">
         <v>50</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="41">
         <v>120</v>
       </c>
       <c r="M25" s="37">
@@ -4690,7 +4600,7 @@
         <v>5.3125</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="45">
+    <row r="26" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>61</v>
       </c>
@@ -4700,7 +4610,7 @@
       <c r="C26" s="40">
         <v>2018</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="36" t="s">
         <v>32</v>
       </c>
@@ -4718,7 +4628,7 @@
       <c r="K26" s="37">
         <v>50</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="41">
         <v>120</v>
       </c>
       <c r="M26" s="37">
@@ -4800,7 +4710,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="45">
+    <row r="27" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>61</v>
       </c>
@@ -4810,7 +4720,7 @@
       <c r="C27" s="40">
         <v>2018</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="36" t="s">
         <v>32</v>
       </c>
@@ -4828,7 +4738,7 @@
       <c r="K27" s="37">
         <v>50</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="41">
         <v>120</v>
       </c>
       <c r="M27" s="37">
@@ -4912,7 +4822,7 @@
         <v>10.206896551724139</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="45">
+    <row r="28" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>61</v>
       </c>
@@ -4922,7 +4832,7 @@
       <c r="C28" s="40">
         <v>2018</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="36" t="s">
         <v>32</v>
       </c>
@@ -4940,7 +4850,7 @@
       <c r="K28" s="37">
         <v>50</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="41">
         <v>120</v>
       </c>
       <c r="M28" s="37">
@@ -5022,7 +4932,7 @@
         <v>7.9285714285714288</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="45">
+    <row r="29" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>61</v>
       </c>
@@ -5032,7 +4942,7 @@
       <c r="C29" s="40">
         <v>2018</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
@@ -5050,7 +4960,7 @@
       <c r="K29" s="37">
         <v>50</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="41">
         <v>120</v>
       </c>
       <c r="M29" s="37">
@@ -5132,17 +5042,17 @@
         <v>10.192307692307692</v>
       </c>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="42">
         <v>2020</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="53" t="s">
         <v>157</v>
       </c>
       <c r="E30" s="37" t="s">
@@ -5238,17 +5148,17 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="42">
         <v>2020</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="37" t="s">
         <v>34</v>
       </c>
@@ -5342,17 +5252,17 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:57">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="42">
         <v>2020</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="37" t="s">
         <v>34</v>
       </c>
@@ -5452,17 +5362,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:57">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="42">
         <v>2020</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="37" t="s">
         <v>34</v>
       </c>
@@ -5562,17 +5472,17 @@
         <v>7.7586206896551726</v>
       </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="42">
         <v>2020</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="37" t="s">
         <v>34</v>
       </c>
@@ -5674,17 +5584,17 @@
         <v>7.1276595744680851</v>
       </c>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="42">
         <v>2020</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="37" t="s">
         <v>34</v>
       </c>
@@ -5786,17 +5696,17 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="36" spans="1:57">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="42">
         <v>2018</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="37" t="s">
         <v>32</v>
       </c>
@@ -5886,17 +5796,17 @@
         <v>4.7391304347826084</v>
       </c>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="42">
         <v>2018</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="37" t="s">
         <v>32</v>
       </c>
@@ -5986,17 +5896,17 @@
         <v>3.5061728395061729</v>
       </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="42">
         <v>2018</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="37" t="s">
         <v>32</v>
       </c>
@@ -6086,17 +5996,17 @@
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="42">
         <v>2018</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="37" t="s">
         <v>32</v>
       </c>
@@ -6186,17 +6096,17 @@
         <v>2.4564459930313589</v>
       </c>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="42">
         <v>2018</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="37" t="s">
         <v>32</v>
       </c>
@@ -6286,17 +6196,17 @@
         <v>2.4912280701754388</v>
       </c>
     </row>
-    <row r="41" spans="1:57">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="42">
         <v>2018</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="37" t="s">
         <v>32</v>
       </c>
@@ -6386,17 +6296,17 @@
         <v>2.7094474153297683</v>
       </c>
     </row>
-    <row r="42" spans="1:57">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="42">
         <v>2017</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="53" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="37" t="s">
@@ -6492,17 +6402,17 @@
         <v>3.2365444196267754</v>
       </c>
     </row>
-    <row r="43" spans="1:57">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="42">
         <v>2017</v>
       </c>
-      <c r="D43" s="38"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="37" t="s">
         <v>77</v>
       </c>
@@ -6596,17 +6506,17 @@
         <v>1.7450637281562573</v>
       </c>
     </row>
-    <row r="44" spans="1:57">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="42">
         <v>2017</v>
       </c>
-      <c r="D44" s="38"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="37" t="s">
         <v>77</v>
       </c>
@@ -6700,17 +6610,17 @@
         <v>2.8852644038869157</v>
       </c>
     </row>
-    <row r="45" spans="1:57">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="42">
         <v>2017</v>
       </c>
-      <c r="D45" s="38"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="37" t="s">
         <v>77</v>
       </c>
@@ -6804,17 +6714,17 @@
         <v>1.3063546655523768</v>
       </c>
     </row>
-    <row r="46" spans="1:57">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="42">
         <v>2017</v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="37" t="s">
         <v>77</v>
       </c>
@@ -6908,17 +6818,17 @@
         <v>3.286987778576564</v>
       </c>
     </row>
-    <row r="47" spans="1:57">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="42">
         <v>2017</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="37" t="s">
         <v>77</v>
       </c>
@@ -7012,17 +6922,17 @@
         <v>1.8138351667159371</v>
       </c>
     </row>
-    <row r="48" spans="1:57">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="42">
         <v>2017</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="37" t="s">
         <v>77</v>
       </c>
@@ -7116,17 +7026,17 @@
         <v>3.0409333790872091</v>
       </c>
     </row>
-    <row r="49" spans="1:57">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="42">
         <v>2017</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="37" t="s">
         <v>77</v>
       </c>
@@ -7220,17 +7130,17 @@
         <v>1.160260925920708</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="15" customHeight="1">
+    <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="42">
         <v>2020</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="53" t="s">
         <v>68</v>
       </c>
       <c r="E50" s="37" t="s">
@@ -7309,7 +7219,7 @@
         <v>639.19299999999998</v>
       </c>
       <c r="AT50" s="34"/>
-      <c r="AU50" s="52">
+      <c r="AU50" s="50">
         <v>26.302800000000001</v>
       </c>
       <c r="AV50" s="34"/>
@@ -7326,17 +7236,17 @@
         <v>3.8529738278814398</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="30">
+    <row r="51" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="42">
         <v>2020</v>
       </c>
-      <c r="D51" s="38"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="37" t="s">
         <v>71</v>
       </c>
@@ -7419,7 +7329,7 @@
         <v>628.33500000000004</v>
       </c>
       <c r="AT51" s="34"/>
-      <c r="AU51" s="52">
+      <c r="AU51" s="50">
         <v>24.563199999999998</v>
       </c>
       <c r="AV51" s="34"/>
@@ -7436,17 +7346,17 @@
         <v>5.982485995310058</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="30">
+    <row r="52" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="42">
         <v>2020</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="37" t="s">
         <v>71</v>
       </c>
@@ -7529,7 +7439,7 @@
         <v>628.33500000000004</v>
       </c>
       <c r="AT52" s="34"/>
-      <c r="AU52" s="52">
+      <c r="AU52" s="50">
         <v>29.255800000000001</v>
       </c>
       <c r="AV52" s="34"/>
@@ -7546,17 +7456,17 @@
         <v>6.2600920159421403</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="30">
+    <row r="53" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="42">
         <v>2020</v>
       </c>
-      <c r="D53" s="38"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="37" t="s">
         <v>71</v>
       </c>
@@ -7639,7 +7549,7 @@
         <v>618.20100000000002</v>
       </c>
       <c r="AT53" s="34"/>
-      <c r="AU53" s="52">
+      <c r="AU53" s="50">
         <v>30.3871</v>
       </c>
       <c r="AV53" s="34"/>
@@ -7656,17 +7566,17 @@
         <v>6.7417094754023923</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="30">
+    <row r="54" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="42">
         <v>2020</v>
       </c>
-      <c r="D54" s="38"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="37" t="s">
         <v>71</v>
       </c>
@@ -7749,7 +7659,7 @@
         <v>602.27499999999998</v>
       </c>
       <c r="AT54" s="34"/>
-      <c r="AU54" s="52">
+      <c r="AU54" s="50">
         <v>27.708500000000001</v>
       </c>
       <c r="AV54" s="34"/>
@@ -7766,17 +7676,17 @@
         <v>7.2366602306151542</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="30">
+    <row r="55" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="42">
         <v>2020</v>
       </c>
-      <c r="D55" s="38"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="37" t="s">
         <v>71</v>
       </c>
@@ -7876,17 +7786,17 @@
         <v>10.193497618554565</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="30">
+    <row r="56" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="42">
         <v>2020</v>
       </c>
-      <c r="D56" s="38"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="37" t="s">
         <v>71</v>
       </c>
@@ -7963,7 +7873,7 @@
         <v>497.97899999999998</v>
       </c>
       <c r="AT56" s="34"/>
-      <c r="AU56" s="52">
+      <c r="AU56" s="50">
         <v>2.9992999999999999</v>
       </c>
       <c r="AV56" s="34"/>
@@ -7980,17 +7890,17 @@
         <v>6.9859633914579984</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="30">
+    <row r="57" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="42">
         <v>2020</v>
       </c>
-      <c r="D57" s="38"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="37" t="s">
         <v>71</v>
       </c>
@@ -8073,7 +7983,7 @@
         <v>566.56799999999998</v>
       </c>
       <c r="AT57" s="34"/>
-      <c r="AU57" s="52">
+      <c r="AU57" s="50">
         <v>14.776999999999999</v>
       </c>
       <c r="AV57" s="34"/>
@@ -8090,17 +8000,17 @@
         <v>7.5781281721594356</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="30">
+    <row r="58" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="42">
         <v>2020</v>
       </c>
-      <c r="D58" s="38"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="37" t="s">
         <v>71</v>
       </c>
@@ -8183,7 +8093,7 @@
         <v>534.73599999999999</v>
       </c>
       <c r="AT58" s="34"/>
-      <c r="AU58" s="52">
+      <c r="AU58" s="50">
         <v>12.6249</v>
       </c>
       <c r="AV58" s="34"/>
@@ -8200,17 +8110,17 @@
         <v>8.470086891777358</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="30">
+    <row r="59" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="42">
         <v>2020</v>
       </c>
-      <c r="D59" s="38"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="37" t="s">
         <v>71</v>
       </c>
@@ -8293,7 +8203,7 @@
         <v>464.65</v>
       </c>
       <c r="AT59" s="34"/>
-      <c r="AU59" s="52">
+      <c r="AU59" s="50">
         <v>6.61</v>
       </c>
       <c r="AV59" s="34"/>
@@ -8310,17 +8220,17 @@
         <v>9.2978819969742812</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="30">
+    <row r="60" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="42">
         <v>2020</v>
       </c>
-      <c r="D60" s="38"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="37" t="s">
         <v>71</v>
       </c>
@@ -8403,7 +8313,7 @@
         <v>429.19600000000003</v>
       </c>
       <c r="AT60" s="34"/>
-      <c r="AU60" s="52">
+      <c r="AU60" s="50">
         <v>4.7328000000000001</v>
       </c>
       <c r="AV60" s="34"/>
@@ -8420,17 +8330,17 @@
         <v>13.75338066260988</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="30">
+    <row r="61" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="42">
         <v>2020</v>
       </c>
-      <c r="D61" s="38"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="37" t="s">
         <v>71</v>
       </c>
@@ -8513,7 +8423,7 @@
         <v>502.798</v>
       </c>
       <c r="AT61" s="34"/>
-      <c r="AU61" s="52">
+      <c r="AU61" s="50">
         <v>16.042899999999999</v>
       </c>
       <c r="AV61" s="34"/>
@@ -8530,17 +8440,17 @@
         <v>13.202662860206075</v>
       </c>
     </row>
-    <row r="62" spans="1:57">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="42">
         <v>2021</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="53" t="s">
         <v>69</v>
       </c>
       <c r="E62" s="37" t="s">
@@ -8636,17 +8546,17 @@
         <v>4.4740484429065734</v>
       </c>
     </row>
-    <row r="63" spans="1:57">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="42">
         <v>2021</v>
       </c>
-      <c r="D63" s="38"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="37" t="s">
         <v>130</v>
       </c>
@@ -8698,7 +8608,7 @@
       <c r="AC63" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD63" s="52">
+      <c r="AD63" s="50">
         <v>1100</v>
       </c>
       <c r="AE63" s="37">
@@ -8746,17 +8656,17 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:57">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="42">
         <v>2021</v>
       </c>
-      <c r="D64" s="38"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="37" t="s">
         <v>130</v>
       </c>
@@ -8858,17 +8768,17 @@
         <v>6.8788732394366212</v>
       </c>
     </row>
-    <row r="65" spans="1:57">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="42">
         <v>2021</v>
       </c>
-      <c r="D65" s="38"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="37" t="s">
         <v>130</v>
       </c>
@@ -8962,17 +8872,17 @@
         <v>12.240000000000009</v>
       </c>
     </row>
-    <row r="66" spans="1:57">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="42">
         <v>2021</v>
       </c>
-      <c r="D66" s="38"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="37" t="s">
         <v>130</v>
       </c>
@@ -9024,7 +8934,7 @@
       <c r="AC66" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD66" s="52">
+      <c r="AD66" s="50">
         <v>1100</v>
       </c>
       <c r="AE66" s="37">
@@ -9072,17 +8982,17 @@
         <v>9.5625000000000018</v>
       </c>
     </row>
-    <row r="67" spans="1:57">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="42">
         <v>2021</v>
       </c>
-      <c r="D67" s="38"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="37" t="s">
         <v>130</v>
       </c>
@@ -9184,17 +9094,17 @@
         <v>11.999999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:57">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="42">
         <v>2021</v>
       </c>
-      <c r="D68" s="38"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="37" t="s">
         <v>130</v>
       </c>
@@ -9288,17 +9198,17 @@
         <v>7.5263157894736903</v>
       </c>
     </row>
-    <row r="69" spans="1:57">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="42">
         <v>2021</v>
       </c>
-      <c r="D69" s="38"/>
+      <c r="D69" s="53"/>
       <c r="E69" s="37" t="s">
         <v>130</v>
       </c>
@@ -9350,7 +9260,7 @@
       <c r="AC69" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD69" s="52">
+      <c r="AD69" s="50">
         <v>1100</v>
       </c>
       <c r="AE69" s="37">
@@ -9398,17 +9308,17 @@
         <v>8.4878048780487845</v>
       </c>
     </row>
-    <row r="70" spans="1:57">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="42">
         <v>2021</v>
       </c>
-      <c r="D70" s="38"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="37" t="s">
         <v>130</v>
       </c>
@@ -9510,17 +9420,17 @@
         <v>10.410256410256409</v>
       </c>
     </row>
-    <row r="71" spans="1:57">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B71" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="42">
         <v>2021</v>
       </c>
-      <c r="D71" s="38"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="37" t="s">
         <v>130</v>
       </c>
@@ -9614,17 +9524,17 @@
         <v>3.6628571428571424</v>
       </c>
     </row>
-    <row r="72" spans="1:57">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="42">
         <v>2021</v>
       </c>
-      <c r="D72" s="38"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="37" t="s">
         <v>130</v>
       </c>
@@ -9681,7 +9591,7 @@
       <c r="AC72" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD72" s="52">
+      <c r="AD72" s="50">
         <v>1100</v>
       </c>
       <c r="AE72" s="37">
@@ -9729,17 +9639,17 @@
         <v>4.8535156250000009</v>
       </c>
     </row>
-    <row r="73" spans="1:57">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B73" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="51">
+      <c r="C73" s="42">
         <v>2021</v>
       </c>
-      <c r="D73" s="38"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="37" t="s">
         <v>130</v>
       </c>
@@ -9846,17 +9756,17 @@
         <v>4.8237547892720292</v>
       </c>
     </row>
-    <row r="74" spans="1:57">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="51">
+      <c r="C74" s="42">
         <v>2021</v>
       </c>
-      <c r="D74" s="38"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="37" t="s">
         <v>130</v>
       </c>
@@ -9955,17 +9865,17 @@
         <v>8.6478873239436584</v>
       </c>
     </row>
-    <row r="75" spans="1:57">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B75" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="42">
         <v>2021</v>
       </c>
-      <c r="D75" s="38"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="37" t="s">
         <v>130</v>
       </c>
@@ -10017,7 +9927,7 @@
       <c r="AC75" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD75" s="52">
+      <c r="AD75" s="50">
         <v>1100</v>
       </c>
       <c r="AE75" s="37">
@@ -10065,17 +9975,17 @@
         <v>10.080459770114942</v>
       </c>
     </row>
-    <row r="76" spans="1:57">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="42">
         <v>2021</v>
       </c>
-      <c r="D76" s="38"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="37" t="s">
         <v>130</v>
       </c>
@@ -10177,17 +10087,17 @@
         <v>12.261744966442953</v>
       </c>
     </row>
-    <row r="77" spans="1:57">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B77" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="42">
         <v>2021</v>
       </c>
-      <c r="D77" s="38"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="37" t="s">
         <v>130</v>
       </c>
@@ -10281,17 +10191,17 @@
         <v>8.9230769230769287</v>
       </c>
     </row>
-    <row r="78" spans="1:57">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B78" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="42">
         <v>2021</v>
       </c>
-      <c r="D78" s="38"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="37" t="s">
         <v>130</v>
       </c>
@@ -10343,7 +10253,7 @@
       <c r="AC78" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD78" s="52">
+      <c r="AD78" s="50">
         <v>1100</v>
       </c>
       <c r="AE78" s="37">
@@ -10391,17 +10301,17 @@
         <v>10.073529411764707</v>
       </c>
     </row>
-    <row r="79" spans="1:57">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B79" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="42">
         <v>2021</v>
       </c>
-      <c r="D79" s="38"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="37" t="s">
         <v>130</v>
       </c>
@@ -10503,17 +10413,17 @@
         <v>9.4603174603174605</v>
       </c>
     </row>
-    <row r="80" spans="1:57">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B80" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="42">
         <v>2021</v>
       </c>
-      <c r="D80" s="38"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="37" t="s">
         <v>130</v>
       </c>
@@ -10607,17 +10517,17 @@
         <v>3.200980392156862</v>
       </c>
     </row>
-    <row r="81" spans="1:57">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="42">
         <v>2021</v>
       </c>
-      <c r="D81" s="38"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="37" t="s">
         <v>130</v>
       </c>
@@ -10674,7 +10584,7 @@
       <c r="AC81" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD81" s="52">
+      <c r="AD81" s="50">
         <v>1100</v>
       </c>
       <c r="AE81" s="37">
@@ -10722,17 +10632,17 @@
         <v>4.5484460694698363</v>
       </c>
     </row>
-    <row r="82" spans="1:57">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="42">
         <v>2021</v>
       </c>
-      <c r="D82" s="38"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="37" t="s">
         <v>130</v>
       </c>
@@ -10839,17 +10749,17 @@
         <v>4.700189753320684</v>
       </c>
     </row>
-    <row r="83" spans="1:57">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B83" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="42">
         <v>2021</v>
       </c>
-      <c r="D83" s="38"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="37" t="s">
         <v>130</v>
       </c>
@@ -10948,17 +10858,17 @@
         <v>5.9342105263157894</v>
       </c>
     </row>
-    <row r="84" spans="1:57">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B84" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="42">
         <v>2021</v>
       </c>
-      <c r="D84" s="38"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="37" t="s">
         <v>130</v>
       </c>
@@ -11010,7 +10920,7 @@
       <c r="AC84" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD84" s="52">
+      <c r="AD84" s="50">
         <v>1100</v>
       </c>
       <c r="AE84" s="37">
@@ -11058,17 +10968,17 @@
         <v>9.0043668122270741</v>
       </c>
     </row>
-    <row r="85" spans="1:57">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B85" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C85" s="42">
         <v>2021</v>
       </c>
-      <c r="D85" s="38"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="37" t="s">
         <v>130</v>
       </c>
@@ -11170,17 +11080,17 @@
         <v>8.7322175732217566</v>
       </c>
     </row>
-    <row r="86" spans="1:57">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B86" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="42">
         <v>2021</v>
       </c>
-      <c r="D86" s="38"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="37" t="s">
         <v>130</v>
       </c>
@@ -11274,17 +11184,17 @@
         <v>8.2857142857142918</v>
       </c>
     </row>
-    <row r="87" spans="1:57">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B87" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="42">
         <v>2021</v>
       </c>
-      <c r="D87" s="38"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="37" t="s">
         <v>130</v>
       </c>
@@ -11336,7 +11246,7 @@
       <c r="AC87" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AD87" s="52">
+      <c r="AD87" s="50">
         <v>1100</v>
       </c>
       <c r="AE87" s="37">
@@ -11384,17 +11294,17 @@
         <v>11.67032967032967</v>
       </c>
     </row>
-    <row r="88" spans="1:57">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B88" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C88" s="51">
+      <c r="C88" s="42">
         <v>2021</v>
       </c>
-      <c r="D88" s="38"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="37" t="s">
         <v>130</v>
       </c>
@@ -11496,7 +11406,7 @@
         <v>11.593750000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="30">
+    <row r="89" spans="1:57" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
         <v>104</v>
       </c>
@@ -11506,10 +11416,10 @@
       <c r="C89" s="37">
         <v>2016</v>
       </c>
-      <c r="D89" s="46" t="s">
+      <c r="D89" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="44" t="s">
         <v>105</v>
       </c>
       <c r="F89" s="36" t="s">
@@ -11564,7 +11474,7 @@
         <v>99.99</v>
       </c>
       <c r="AB89" s="34"/>
-      <c r="AC89" s="44"/>
+      <c r="AC89" s="43"/>
       <c r="AD89" s="37"/>
       <c r="AE89" s="37"/>
       <c r="AF89" s="37"/>
@@ -11607,7 +11517,7 @@
         <v>12.802275960170697</v>
       </c>
     </row>
-    <row r="90" spans="1:57">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>104</v>
       </c>
@@ -11617,17 +11527,17 @@
       <c r="C90" s="37">
         <v>2015</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D90" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="F90" s="45" t="s">
+      <c r="F90" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
       <c r="I90" s="37">
         <v>194</v>
       </c>
@@ -11674,7 +11584,7 @@
       <c r="AB90" s="34">
         <v>0.02</v>
       </c>
-      <c r="AC90" s="44"/>
+      <c r="AC90" s="43"/>
       <c r="AD90" s="37"/>
       <c r="AE90" s="37"/>
       <c r="AF90" s="37"/>
@@ -11723,7 +11633,7 @@
         <v>56.666666666666664</v>
       </c>
     </row>
-    <row r="91" spans="1:57">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
         <v>104</v>
       </c>
@@ -11733,10 +11643,10 @@
       <c r="C91" s="37">
         <v>2019</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F91" s="36" t="s">
@@ -11786,7 +11696,7 @@
       <c r="AB91" s="34">
         <v>0.06</v>
       </c>
-      <c r="AC91" s="44"/>
+      <c r="AC91" s="43"/>
       <c r="AD91" s="37"/>
       <c r="AE91" s="37"/>
       <c r="AF91" s="37"/>
@@ -11835,7 +11745,7 @@
         <v>8.085106382978724</v>
       </c>
     </row>
-    <row r="92" spans="1:57">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
         <v>104</v>
       </c>
@@ -11845,10 +11755,10 @@
       <c r="C92" s="37">
         <v>2019</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D92" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F92" s="36" t="s">
@@ -11896,7 +11806,7 @@
         <v>98.42</v>
       </c>
       <c r="AB92" s="34"/>
-      <c r="AC92" s="44"/>
+      <c r="AC92" s="43"/>
       <c r="AD92" s="37"/>
       <c r="AE92" s="37"/>
       <c r="AF92" s="37"/>
@@ -11945,7 +11855,7 @@
         <v>4.545454545454545</v>
       </c>
     </row>
-    <row r="93" spans="1:57">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
         <v>104</v>
       </c>
@@ -11955,10 +11865,10 @@
       <c r="C93" s="37">
         <v>2019</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E93" s="45" t="s">
+      <c r="E93" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F93" s="36" t="s">
@@ -12006,7 +11916,7 @@
         <v>97.83</v>
       </c>
       <c r="AB93" s="34"/>
-      <c r="AC93" s="44"/>
+      <c r="AC93" s="43"/>
       <c r="AD93" s="37"/>
       <c r="AE93" s="37"/>
       <c r="AF93" s="37"/>
@@ -12055,7 +11965,7 @@
         <v>9.8039215686274517</v>
       </c>
     </row>
-    <row r="94" spans="1:57">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
         <v>104</v>
       </c>
@@ -12065,10 +11975,10 @@
       <c r="C94" s="37">
         <v>2019</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D94" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F94" s="36" t="s">
@@ -12116,7 +12026,7 @@
         <v>99.39</v>
       </c>
       <c r="AB94" s="34"/>
-      <c r="AC94" s="44"/>
+      <c r="AC94" s="43"/>
       <c r="AD94" s="37"/>
       <c r="AE94" s="37"/>
       <c r="AF94" s="37"/>
@@ -12165,7 +12075,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:57">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
         <v>104</v>
       </c>
@@ -12175,10 +12085,10 @@
       <c r="C95" s="37">
         <v>2019</v>
       </c>
-      <c r="D95" s="46" t="s">
+      <c r="D95" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E95" s="45" t="s">
+      <c r="E95" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F95" s="36" t="s">
@@ -12226,7 +12136,7 @@
         <v>99.73</v>
       </c>
       <c r="AB95" s="34"/>
-      <c r="AC95" s="44"/>
+      <c r="AC95" s="43"/>
       <c r="AD95" s="37"/>
       <c r="AE95" s="37"/>
       <c r="AF95" s="37"/>
@@ -12275,7 +12185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:57">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>104</v>
       </c>
@@ -12285,10 +12195,10 @@
       <c r="C96" s="37">
         <v>2019</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D96" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F96" s="36" t="s">
@@ -12336,7 +12246,7 @@
         <v>98.89</v>
       </c>
       <c r="AB96" s="34"/>
-      <c r="AC96" s="44"/>
+      <c r="AC96" s="43"/>
       <c r="AD96" s="37"/>
       <c r="AE96" s="37"/>
       <c r="AF96" s="37"/>
@@ -12385,7 +12295,7 @@
         <v>8.5106382978723403</v>
       </c>
     </row>
-    <row r="97" spans="1:57">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
         <v>104</v>
       </c>
@@ -12395,10 +12305,10 @@
       <c r="C97" s="37">
         <v>2019</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D97" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E97" s="45" t="s">
+      <c r="E97" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F97" s="36" t="s">
@@ -12448,7 +12358,7 @@
       <c r="AB97" s="34">
         <v>0.27</v>
       </c>
-      <c r="AC97" s="44"/>
+      <c r="AC97" s="43"/>
       <c r="AD97" s="37"/>
       <c r="AE97" s="37"/>
       <c r="AF97" s="37"/>
@@ -12497,7 +12407,7 @@
         <v>11.86046511627907</v>
       </c>
     </row>
-    <row r="98" spans="1:57">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
         <v>104</v>
       </c>
@@ -12507,10 +12417,10 @@
       <c r="C98" s="37">
         <v>2019</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E98" s="45" t="s">
+      <c r="E98" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F98" s="36" t="s">
@@ -12558,7 +12468,7 @@
         <v>99.2</v>
       </c>
       <c r="AB98" s="34"/>
-      <c r="AC98" s="44"/>
+      <c r="AC98" s="43"/>
       <c r="AD98" s="37"/>
       <c r="AE98" s="37"/>
       <c r="AF98" s="37"/>
@@ -12607,7 +12517,7 @@
         <v>2.0408163265306123</v>
       </c>
     </row>
-    <row r="99" spans="1:57">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
         <v>104</v>
       </c>
@@ -12617,10 +12527,10 @@
       <c r="C99" s="37">
         <v>2019</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D99" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F99" s="36" t="s">
@@ -12668,7 +12578,7 @@
         <v>95.49</v>
       </c>
       <c r="AB99" s="34"/>
-      <c r="AC99" s="44"/>
+      <c r="AC99" s="43"/>
       <c r="AD99" s="37"/>
       <c r="AE99" s="37"/>
       <c r="AF99" s="37"/>
@@ -12717,7 +12627,7 @@
         <v>2.0408163265306123</v>
       </c>
     </row>
-    <row r="100" spans="1:57">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
         <v>104</v>
       </c>
@@ -12727,10 +12637,10 @@
       <c r="C100" s="37">
         <v>2019</v>
       </c>
-      <c r="D100" s="46" t="s">
+      <c r="D100" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="45" t="s">
+      <c r="E100" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F100" s="36" t="s">
@@ -12780,7 +12690,7 @@
       <c r="AB100" s="34">
         <v>0.33</v>
       </c>
-      <c r="AC100" s="44"/>
+      <c r="AC100" s="43"/>
       <c r="AD100" s="37"/>
       <c r="AE100" s="37"/>
       <c r="AF100" s="37"/>
@@ -12829,7 +12739,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="101" spans="1:57">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
         <v>104</v>
       </c>
@@ -12839,10 +12749,10 @@
       <c r="C101" s="37">
         <v>2019</v>
       </c>
-      <c r="D101" s="46" t="s">
+      <c r="D101" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E101" s="45" t="s">
+      <c r="E101" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F101" s="36" t="s">
@@ -12892,7 +12802,7 @@
       <c r="AB101" s="34">
         <v>0.31</v>
       </c>
-      <c r="AC101" s="44"/>
+      <c r="AC101" s="43"/>
       <c r="AD101" s="37"/>
       <c r="AE101" s="37"/>
       <c r="AF101" s="37"/>
@@ -12941,7 +12851,7 @@
         <v>11.627906976744187</v>
       </c>
     </row>
-    <row r="102" spans="1:57">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
         <v>104</v>
       </c>
@@ -12951,10 +12861,10 @@
       <c r="C102" s="37">
         <v>2019</v>
       </c>
-      <c r="D102" s="46" t="s">
+      <c r="D102" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E102" s="45" t="s">
+      <c r="E102" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F102" s="36" t="s">
@@ -13002,7 +12912,7 @@
         <v>99.15</v>
       </c>
       <c r="AB102" s="34"/>
-      <c r="AC102" s="44"/>
+      <c r="AC102" s="43"/>
       <c r="AD102" s="37"/>
       <c r="AE102" s="37"/>
       <c r="AF102" s="37"/>
@@ -13051,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:57">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
         <v>104</v>
       </c>
@@ -13061,10 +12971,10 @@
       <c r="C103" s="37">
         <v>2019</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D103" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E103" s="45" t="s">
+      <c r="E103" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F103" s="36" t="s">
@@ -13114,7 +13024,7 @@
       <c r="AB103" s="34">
         <v>0.41</v>
       </c>
-      <c r="AC103" s="44"/>
+      <c r="AC103" s="43"/>
       <c r="AD103" s="37"/>
       <c r="AE103" s="37"/>
       <c r="AF103" s="37"/>
@@ -13163,7 +13073,7 @@
         <v>17.586206896551726</v>
       </c>
     </row>
-    <row r="104" spans="1:57">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
         <v>104</v>
       </c>
@@ -13173,10 +13083,10 @@
       <c r="C104" s="37">
         <v>2019</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E104" s="45" t="s">
+      <c r="E104" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F104" s="36" t="s">
@@ -13226,7 +13136,7 @@
       <c r="AB104" s="34">
         <v>0.4</v>
       </c>
-      <c r="AC104" s="44"/>
+      <c r="AC104" s="43"/>
       <c r="AD104" s="37"/>
       <c r="AE104" s="37"/>
       <c r="AF104" s="37"/>
@@ -13275,7 +13185,7 @@
         <v>16.216216216216214</v>
       </c>
     </row>
-    <row r="105" spans="1:57">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>104</v>
       </c>
@@ -13285,10 +13195,10 @@
       <c r="C105" s="37">
         <v>2019</v>
       </c>
-      <c r="D105" s="46" t="s">
+      <c r="D105" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E105" s="45" t="s">
+      <c r="E105" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F105" s="36" t="s">
@@ -13338,7 +13248,7 @@
       <c r="AB105" s="34">
         <v>0.2</v>
       </c>
-      <c r="AC105" s="44"/>
+      <c r="AC105" s="43"/>
       <c r="AD105" s="37"/>
       <c r="AE105" s="37"/>
       <c r="AF105" s="37"/>
@@ -13387,7 +13297,7 @@
         <v>13.953488372093023</v>
       </c>
     </row>
-    <row r="106" spans="1:57">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>104</v>
       </c>
@@ -13397,10 +13307,10 @@
       <c r="C106" s="37">
         <v>2019</v>
       </c>
-      <c r="D106" s="46" t="s">
+      <c r="D106" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E106" s="45" t="s">
+      <c r="E106" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F106" s="36" t="s">
@@ -13450,7 +13360,7 @@
       <c r="AB106" s="34">
         <v>0.46</v>
       </c>
-      <c r="AC106" s="44"/>
+      <c r="AC106" s="43"/>
       <c r="AD106" s="37"/>
       <c r="AE106" s="37"/>
       <c r="AF106" s="37"/>
@@ -13499,7 +13409,7 @@
         <v>18.846153846153847</v>
       </c>
     </row>
-    <row r="107" spans="1:57">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>104</v>
       </c>
@@ -13509,10 +13419,10 @@
       <c r="C107" s="37">
         <v>2019</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E107" s="45" t="s">
+      <c r="E107" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F107" s="36" t="s">
@@ -13562,7 +13472,7 @@
       <c r="AB107" s="34">
         <v>0.44</v>
       </c>
-      <c r="AC107" s="44"/>
+      <c r="AC107" s="43"/>
       <c r="AD107" s="37"/>
       <c r="AE107" s="37"/>
       <c r="AF107" s="37"/>
@@ -13611,7 +13521,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="108" spans="1:57">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
         <v>104</v>
       </c>
@@ -13621,10 +13531,10 @@
       <c r="C108" s="37">
         <v>2019</v>
       </c>
-      <c r="D108" s="46" t="s">
+      <c r="D108" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E108" s="45" t="s">
+      <c r="E108" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F108" s="36" t="s">
@@ -13674,7 +13584,7 @@
       <c r="AB108" s="34">
         <v>0.3</v>
       </c>
-      <c r="AC108" s="44"/>
+      <c r="AC108" s="43"/>
       <c r="AD108" s="37"/>
       <c r="AE108" s="37"/>
       <c r="AF108" s="37"/>
@@ -13723,7 +13633,7 @@
         <v>15.384615384615385</v>
       </c>
     </row>
-    <row r="109" spans="1:57">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
         <v>104</v>
       </c>
@@ -13733,10 +13643,10 @@
       <c r="C109" s="37">
         <v>2019</v>
       </c>
-      <c r="D109" s="46" t="s">
+      <c r="D109" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E109" s="45" t="s">
+      <c r="E109" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F109" s="36" t="s">
@@ -13784,7 +13694,7 @@
         <v>98.73</v>
       </c>
       <c r="AB109" s="34"/>
-      <c r="AC109" s="44"/>
+      <c r="AC109" s="43"/>
       <c r="AD109" s="37"/>
       <c r="AE109" s="37"/>
       <c r="AF109" s="37"/>
@@ -13833,7 +13743,7 @@
         <v>10.517241379310345</v>
       </c>
     </row>
-    <row r="110" spans="1:57">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A110" s="40" t="s">
         <v>104</v>
       </c>
@@ -13843,10 +13753,10 @@
       <c r="C110" s="37">
         <v>2019</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D110" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E110" s="45" t="s">
+      <c r="E110" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F110" s="36" t="s">
@@ -13894,7 +13804,7 @@
         <v>98.42</v>
       </c>
       <c r="AB110" s="34"/>
-      <c r="AC110" s="44"/>
+      <c r="AC110" s="43"/>
       <c r="AD110" s="37"/>
       <c r="AE110" s="37"/>
       <c r="AF110" s="37"/>
@@ -13943,7 +13853,7 @@
         <v>9.433962264150944</v>
       </c>
     </row>
-    <row r="111" spans="1:57">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>104</v>
       </c>
@@ -13953,10 +13863,10 @@
       <c r="C111" s="37">
         <v>2019</v>
       </c>
-      <c r="D111" s="46" t="s">
+      <c r="D111" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E111" s="45" t="s">
+      <c r="E111" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F111" s="36" t="s">
@@ -14004,7 +13914,7 @@
         <v>97.83</v>
       </c>
       <c r="AB111" s="34"/>
-      <c r="AC111" s="44"/>
+      <c r="AC111" s="43"/>
       <c r="AD111" s="37"/>
       <c r="AE111" s="37"/>
       <c r="AF111" s="37"/>
@@ -14053,7 +13963,7 @@
         <v>4.6511627906976747</v>
       </c>
     </row>
-    <row r="112" spans="1:57">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="s">
         <v>104</v>
       </c>
@@ -14063,10 +13973,10 @@
       <c r="C112" s="37">
         <v>2019</v>
       </c>
-      <c r="D112" s="46" t="s">
+      <c r="D112" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E112" s="45" t="s">
+      <c r="E112" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F112" s="36" t="s">
@@ -14114,7 +14024,7 @@
         <v>99.39</v>
       </c>
       <c r="AB112" s="34"/>
-      <c r="AC112" s="44"/>
+      <c r="AC112" s="43"/>
       <c r="AD112" s="37"/>
       <c r="AE112" s="37"/>
       <c r="AF112" s="37"/>
@@ -14163,7 +14073,7 @@
         <v>6.7213114754098369</v>
       </c>
     </row>
-    <row r="113" spans="1:57">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
         <v>104</v>
       </c>
@@ -14173,10 +14083,10 @@
       <c r="C113" s="37">
         <v>2019</v>
       </c>
-      <c r="D113" s="46" t="s">
+      <c r="D113" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E113" s="45" t="s">
+      <c r="E113" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F113" s="36" t="s">
@@ -14224,7 +14134,7 @@
         <v>99.73</v>
       </c>
       <c r="AB113" s="34"/>
-      <c r="AC113" s="44"/>
+      <c r="AC113" s="43"/>
       <c r="AD113" s="37"/>
       <c r="AE113" s="37"/>
       <c r="AF113" s="37"/>
@@ -14273,7 +14183,7 @@
         <v>6.3492063492063497</v>
       </c>
     </row>
-    <row r="114" spans="1:57">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
         <v>104</v>
       </c>
@@ -14283,10 +14193,10 @@
       <c r="C114" s="37">
         <v>2019</v>
       </c>
-      <c r="D114" s="46" t="s">
+      <c r="D114" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E114" s="45" t="s">
+      <c r="E114" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F114" s="36" t="s">
@@ -14334,7 +14244,7 @@
         <v>98.89</v>
       </c>
       <c r="AB114" s="34"/>
-      <c r="AC114" s="44"/>
+      <c r="AC114" s="43"/>
       <c r="AD114" s="37"/>
       <c r="AE114" s="37"/>
       <c r="AF114" s="37"/>
@@ -14383,7 +14293,7 @@
         <v>10.344827586206897</v>
       </c>
     </row>
-    <row r="115" spans="1:57">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A115" s="40" t="s">
         <v>104</v>
       </c>
@@ -14393,10 +14303,10 @@
       <c r="C115" s="37">
         <v>2019</v>
       </c>
-      <c r="D115" s="46" t="s">
+      <c r="D115" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E115" s="45" t="s">
+      <c r="E115" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F115" s="36" t="s">
@@ -14444,7 +14354,7 @@
         <v>94.42</v>
       </c>
       <c r="AB115" s="34"/>
-      <c r="AC115" s="44"/>
+      <c r="AC115" s="43"/>
       <c r="AD115" s="37"/>
       <c r="AE115" s="37"/>
       <c r="AF115" s="37"/>
@@ -14493,7 +14403,7 @@
         <v>5.1515151515151514</v>
       </c>
     </row>
-    <row r="116" spans="1:57">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
         <v>104</v>
       </c>
@@ -14503,10 +14413,10 @@
       <c r="C116" s="37">
         <v>2019</v>
       </c>
-      <c r="D116" s="46" t="s">
+      <c r="D116" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E116" s="45" t="s">
+      <c r="E116" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F116" s="36" t="s">
@@ -14554,7 +14464,7 @@
         <v>99.2</v>
       </c>
       <c r="AB116" s="34"/>
-      <c r="AC116" s="44"/>
+      <c r="AC116" s="43"/>
       <c r="AD116" s="37"/>
       <c r="AE116" s="37"/>
       <c r="AF116" s="37"/>
@@ -14603,7 +14513,7 @@
         <v>6.557377049180328</v>
       </c>
     </row>
-    <row r="117" spans="1:57">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A117" s="40" t="s">
         <v>104</v>
       </c>
@@ -14613,10 +14523,10 @@
       <c r="C117" s="37">
         <v>2019</v>
       </c>
-      <c r="D117" s="46" t="s">
+      <c r="D117" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E117" s="45" t="s">
+      <c r="E117" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F117" s="36" t="s">
@@ -14664,7 +14574,7 @@
         <v>95.49</v>
       </c>
       <c r="AB117" s="34"/>
-      <c r="AC117" s="44"/>
+      <c r="AC117" s="43"/>
       <c r="AD117" s="37"/>
       <c r="AE117" s="37"/>
       <c r="AF117" s="37"/>
@@ -14713,7 +14623,7 @@
         <v>6.4516129032258061</v>
       </c>
     </row>
-    <row r="118" spans="1:57">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A118" s="40" t="s">
         <v>104</v>
       </c>
@@ -14723,10 +14633,10 @@
       <c r="C118" s="37">
         <v>2019</v>
       </c>
-      <c r="D118" s="46" t="s">
+      <c r="D118" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E118" s="45" t="s">
+      <c r="E118" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F118" s="36" t="s">
@@ -14774,7 +14684,7 @@
         <v>93.16</v>
       </c>
       <c r="AB118" s="34"/>
-      <c r="AC118" s="44"/>
+      <c r="AC118" s="43"/>
       <c r="AD118" s="37"/>
       <c r="AE118" s="37"/>
       <c r="AF118" s="37"/>
@@ -14823,7 +14733,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:57">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
         <v>104</v>
       </c>
@@ -14833,10 +14743,10 @@
       <c r="C119" s="37">
         <v>2019</v>
       </c>
-      <c r="D119" s="46" t="s">
+      <c r="D119" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E119" s="45" t="s">
+      <c r="E119" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F119" s="36" t="s">
@@ -14884,7 +14794,7 @@
         <v>94.7</v>
       </c>
       <c r="AB119" s="34"/>
-      <c r="AC119" s="44"/>
+      <c r="AC119" s="43"/>
       <c r="AD119" s="37"/>
       <c r="AE119" s="37"/>
       <c r="AF119" s="37"/>
@@ -14933,7 +14843,7 @@
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="120" spans="1:57">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
         <v>104</v>
       </c>
@@ -14943,10 +14853,10 @@
       <c r="C120" s="37">
         <v>2019</v>
       </c>
-      <c r="D120" s="46" t="s">
+      <c r="D120" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E120" s="45" t="s">
+      <c r="E120" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F120" s="36" t="s">
@@ -14994,7 +14904,7 @@
         <v>99.15</v>
       </c>
       <c r="AB120" s="34"/>
-      <c r="AC120" s="44"/>
+      <c r="AC120" s="43"/>
       <c r="AD120" s="37"/>
       <c r="AE120" s="37"/>
       <c r="AF120" s="37"/>
@@ -15043,7 +14953,7 @@
         <v>8.1967213114754109</v>
       </c>
     </row>
-    <row r="121" spans="1:57">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
         <v>104</v>
       </c>
@@ -15053,10 +14963,10 @@
       <c r="C121" s="37">
         <v>2019</v>
       </c>
-      <c r="D121" s="46" t="s">
+      <c r="D121" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E121" s="45" t="s">
+      <c r="E121" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F121" s="36" t="s">
@@ -15104,7 +15014,7 @@
         <v>91.78</v>
       </c>
       <c r="AB121" s="34"/>
-      <c r="AC121" s="44"/>
+      <c r="AC121" s="43"/>
       <c r="AD121" s="37"/>
       <c r="AE121" s="37"/>
       <c r="AF121" s="37"/>
@@ -15153,7 +15063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:57">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
         <v>104</v>
       </c>
@@ -15163,10 +15073,10 @@
       <c r="C122" s="37">
         <v>2019</v>
       </c>
-      <c r="D122" s="46" t="s">
+      <c r="D122" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E122" s="45" t="s">
+      <c r="E122" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F122" s="36" t="s">
@@ -15214,7 +15124,7 @@
         <v>93.59</v>
       </c>
       <c r="AB122" s="34"/>
-      <c r="AC122" s="44"/>
+      <c r="AC122" s="43"/>
       <c r="AD122" s="37"/>
       <c r="AE122" s="37"/>
       <c r="AF122" s="37"/>
@@ -15263,7 +15173,7 @@
         <v>10.344827586206897</v>
       </c>
     </row>
-    <row r="123" spans="1:57">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
         <v>104</v>
       </c>
@@ -15273,10 +15183,10 @@
       <c r="C123" s="37">
         <v>2019</v>
       </c>
-      <c r="D123" s="46" t="s">
+      <c r="D123" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E123" s="45" t="s">
+      <c r="E123" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F123" s="36" t="s">
@@ -15324,7 +15234,7 @@
         <v>95.49</v>
       </c>
       <c r="AB123" s="34"/>
-      <c r="AC123" s="44"/>
+      <c r="AC123" s="43"/>
       <c r="AD123" s="37"/>
       <c r="AE123" s="37"/>
       <c r="AF123" s="37"/>
@@ -15373,7 +15283,7 @@
         <v>11.428571428571429</v>
       </c>
     </row>
-    <row r="124" spans="1:57">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
         <v>104</v>
       </c>
@@ -15383,10 +15293,10 @@
       <c r="C124" s="37">
         <v>2019</v>
       </c>
-      <c r="D124" s="46" t="s">
+      <c r="D124" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E124" s="45" t="s">
+      <c r="E124" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F124" s="36" t="s">
@@ -15434,7 +15344,7 @@
         <v>90.79</v>
       </c>
       <c r="AB124" s="34"/>
-      <c r="AC124" s="44"/>
+      <c r="AC124" s="43"/>
       <c r="AD124" s="37"/>
       <c r="AE124" s="37"/>
       <c r="AF124" s="37"/>
@@ -15483,7 +15393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:57">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>104</v>
       </c>
@@ -15493,10 +15403,10 @@
       <c r="C125" s="37">
         <v>2019</v>
       </c>
-      <c r="D125" s="46" t="s">
+      <c r="D125" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E125" s="45" t="s">
+      <c r="E125" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F125" s="36" t="s">
@@ -15544,7 +15454,7 @@
         <v>92.71</v>
       </c>
       <c r="AB125" s="34"/>
-      <c r="AC125" s="44"/>
+      <c r="AC125" s="43"/>
       <c r="AD125" s="37"/>
       <c r="AE125" s="37"/>
       <c r="AF125" s="37"/>
@@ -15593,7 +15503,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="126" spans="1:57">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
         <v>104</v>
       </c>
@@ -15603,10 +15513,10 @@
       <c r="C126" s="37">
         <v>2019</v>
       </c>
-      <c r="D126" s="46" t="s">
+      <c r="D126" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E126" s="45" t="s">
+      <c r="E126" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F126" s="36" t="s">
@@ -15654,7 +15564,7 @@
         <v>93.86</v>
       </c>
       <c r="AB126" s="34"/>
-      <c r="AC126" s="44"/>
+      <c r="AC126" s="43"/>
       <c r="AD126" s="37"/>
       <c r="AE126" s="37"/>
       <c r="AF126" s="37"/>
@@ -15703,7 +15613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:57">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
         <v>104</v>
       </c>
@@ -15713,7 +15623,7 @@
       <c r="C127" s="37">
         <v>2018</v>
       </c>
-      <c r="D127" s="46" t="s">
+      <c r="D127" s="45" t="s">
         <v>95</v>
       </c>
       <c r="E127" s="37" t="s">
@@ -15831,7 +15741,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="128" spans="1:57">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A128" s="40" t="s">
         <v>104</v>
       </c>
@@ -15841,7 +15751,7 @@
       <c r="C128" s="40">
         <v>2016</v>
       </c>
-      <c r="D128" s="46" t="s">
+      <c r="D128" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E128" s="37" t="s">
@@ -15896,7 +15806,7 @@
         <v>99.784999999999997</v>
       </c>
       <c r="AB128" s="34"/>
-      <c r="AC128" s="44"/>
+      <c r="AC128" s="43"/>
       <c r="AD128" s="37"/>
       <c r="AE128" s="37"/>
       <c r="AF128" s="37"/>
@@ -15957,7 +15867,7 @@
         <v>21.145038167938967</v>
       </c>
     </row>
-    <row r="129" spans="1:57">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A129" s="40" t="s">
         <v>104</v>
       </c>
@@ -16020,7 +15930,7 @@
         <v>99.784999999999997</v>
       </c>
       <c r="AB129" s="34"/>
-      <c r="AC129" s="44"/>
+      <c r="AC129" s="43"/>
       <c r="AD129" s="37"/>
       <c r="AE129" s="37"/>
       <c r="AF129" s="37"/>
@@ -16081,17 +15991,17 @@
         <v>15.657894736842136</v>
       </c>
     </row>
-    <row r="130" spans="1:57">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A130" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="50" t="s">
+      <c r="B130" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C130" s="40">
         <v>2017</v>
       </c>
-      <c r="D130" s="46" t="s">
+      <c r="D130" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E130" s="37" t="s">
@@ -16194,7 +16104,7 @@
         <v>15.640599001663894</v>
       </c>
     </row>
-    <row r="131" spans="1:57">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
         <v>104</v>
       </c>
@@ -16300,7 +16210,7 @@
         <v>29.180327868852462</v>
       </c>
     </row>
-    <row r="132" spans="1:57">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A132" s="40" t="s">
         <v>104</v>
       </c>
@@ -16310,7 +16220,7 @@
       <c r="C132" s="40">
         <v>2017</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="D132" s="45" t="s">
         <v>162</v>
       </c>
       <c r="E132" s="37" t="s">
@@ -16412,7 +16322,7 @@
         <v>10.980392156862745</v>
       </c>
     </row>
-    <row r="133" spans="1:57">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A133" s="40" t="s">
         <v>104</v>
       </c>
@@ -16518,7 +16428,7 @@
         <v>17.127659574468083</v>
       </c>
     </row>
-    <row r="134" spans="1:57">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A134" s="40" t="s">
         <v>104</v>
       </c>
@@ -16628,7 +16538,7 @@
         <v>7.2388059701492535</v>
       </c>
     </row>
-    <row r="135" spans="1:57">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
         <v>104</v>
       </c>
@@ -16638,7 +16548,7 @@
       <c r="C135" s="40">
         <v>2018</v>
       </c>
-      <c r="D135" s="46" t="s">
+      <c r="D135" s="45" t="s">
         <v>101</v>
       </c>
       <c r="E135" s="37" t="s">
@@ -16738,7 +16648,7 @@
         <v>6.5306122448979593</v>
       </c>
     </row>
-    <row r="136" spans="1:57">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
         <v>104</v>
       </c>
@@ -16848,7 +16758,7 @@
         <v>5.5026455026455032</v>
       </c>
     </row>
-    <row r="137" spans="1:57">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A137" s="40" t="s">
         <v>104</v>
       </c>
@@ -16958,7 +16868,7 @@
         <v>5.5376344086021501</v>
       </c>
     </row>
-    <row r="138" spans="1:57">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A138" s="40" t="s">
         <v>104</v>
       </c>
@@ -17068,7 +16978,7 @@
         <v>29.333333333333332</v>
       </c>
     </row>
-    <row r="139" spans="1:57">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
         <v>104</v>
       </c>
@@ -17184,7 +17094,7 @@
         <v>32.428571428571431</v>
       </c>
     </row>
-    <row r="140" spans="1:57">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>104</v>
       </c>
@@ -17300,7 +17210,7 @@
         <v>4.2222222222222223</v>
       </c>
     </row>
-    <row r="141" spans="1:57">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>104</v>
       </c>
@@ -17416,7 +17326,7 @@
         <v>5.5333333333333332</v>
       </c>
     </row>
-    <row r="142" spans="1:57">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
         <v>104</v>
       </c>
@@ -17426,7 +17336,7 @@
       <c r="C142" s="40">
         <v>2018</v>
       </c>
-      <c r="D142" s="46" t="s">
+      <c r="D142" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E142" s="37" t="s">
@@ -17532,7 +17442,7 @@
         <v>6.833333333333333</v>
       </c>
     </row>
-    <row r="143" spans="1:57">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A143" s="40" t="s">
         <v>104</v>
       </c>
@@ -17648,7 +17558,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="144" spans="1:57">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="s">
         <v>104</v>
       </c>
@@ -17766,17 +17676,17 @@
         <v>5.3684210526315788</v>
       </c>
     </row>
-    <row r="145" spans="1:57">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A145" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B145" s="50" t="s">
+      <c r="B145" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="50">
+      <c r="C145" s="49">
         <v>2007</v>
       </c>
-      <c r="D145" s="46" t="s">
+      <c r="D145" s="45" t="s">
         <v>119</v>
       </c>
       <c r="E145" s="37" t="s">
@@ -17811,15 +17721,15 @@
       <c r="T145" s="34"/>
       <c r="U145" s="34"/>
       <c r="V145" s="34"/>
-      <c r="W145" s="53">
+      <c r="W145" s="51">
         <f t="shared" ref="W145:W149" si="28">I145/J145*1000</f>
         <v>384.61538461538464</v>
       </c>
-      <c r="X145" s="54">
+      <c r="X145" s="52">
         <f t="shared" ref="X145:X155" si="29">I145/(J145*L145)*1000</f>
         <v>6.4102564102564097</v>
       </c>
-      <c r="Y145" s="47">
+      <c r="Y145" s="46">
         <f t="shared" ref="Y145:Y155" si="30">I145/(J145*K145*L145)*10^6</f>
         <v>128.2051282051282</v>
       </c>
@@ -17881,17 +17791,17 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="146" spans="1:57">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C146" s="50">
+      <c r="C146" s="49">
         <v>2007</v>
       </c>
-      <c r="D146" s="46" t="s">
+      <c r="D146" s="45" t="s">
         <v>121</v>
       </c>
       <c r="E146" s="37" t="s">
@@ -17926,15 +17836,15 @@
       <c r="T146" s="34"/>
       <c r="U146" s="34"/>
       <c r="V146" s="34"/>
-      <c r="W146" s="53">
+      <c r="W146" s="51">
         <f t="shared" si="28"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X146" s="54">
+      <c r="X146" s="52">
         <f t="shared" si="29"/>
         <v>4.8076923076923084</v>
       </c>
-      <c r="Y146" s="47">
+      <c r="Y146" s="46">
         <f t="shared" si="30"/>
         <v>96.15384615384616</v>
       </c>
@@ -17996,17 +17906,17 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="147" spans="1:57">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C147" s="50">
+      <c r="C147" s="49">
         <v>2007</v>
       </c>
-      <c r="D147" s="46" t="s">
+      <c r="D147" s="45" t="s">
         <v>122</v>
       </c>
       <c r="E147" s="37" t="s">
@@ -18041,15 +17951,15 @@
       <c r="T147" s="34"/>
       <c r="U147" s="34"/>
       <c r="V147" s="34"/>
-      <c r="W147" s="53">
+      <c r="W147" s="51">
         <f t="shared" si="28"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X147" s="54">
+      <c r="X147" s="52">
         <f t="shared" si="29"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="Y147" s="47">
+      <c r="Y147" s="46">
         <f t="shared" si="30"/>
         <v>76.92307692307692</v>
       </c>
@@ -18111,17 +18021,17 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="148" spans="1:57">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="50" t="s">
+      <c r="B148" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C148" s="50">
+      <c r="C148" s="49">
         <v>2007</v>
       </c>
-      <c r="D148" s="46" t="s">
+      <c r="D148" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E148" s="37" t="s">
@@ -18156,15 +18066,15 @@
       <c r="T148" s="34"/>
       <c r="U148" s="34"/>
       <c r="V148" s="34"/>
-      <c r="W148" s="53">
+      <c r="W148" s="51">
         <f t="shared" si="28"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X148" s="54">
+      <c r="X148" s="52">
         <f t="shared" si="29"/>
         <v>3.2051282051282048</v>
       </c>
-      <c r="Y148" s="47">
+      <c r="Y148" s="46">
         <f t="shared" si="30"/>
         <v>64.102564102564102</v>
       </c>
@@ -18226,17 +18136,17 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="149" spans="1:57">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B149" s="50" t="s">
+      <c r="B149" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C149" s="50">
+      <c r="C149" s="49">
         <v>2007</v>
       </c>
-      <c r="D149" s="46" t="s">
+      <c r="D149" s="45" t="s">
         <v>124</v>
       </c>
       <c r="E149" s="37" t="s">
@@ -18271,15 +18181,15 @@
       <c r="T149" s="34"/>
       <c r="U149" s="34"/>
       <c r="V149" s="34"/>
-      <c r="W149" s="53">
+      <c r="W149" s="51">
         <f t="shared" si="28"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X149" s="54">
+      <c r="X149" s="52">
         <f t="shared" si="29"/>
         <v>2.7472527472527473</v>
       </c>
-      <c r="Y149" s="47">
+      <c r="Y149" s="46">
         <f t="shared" si="30"/>
         <v>54.945054945054942</v>
       </c>
@@ -18341,17 +18251,17 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="150" spans="1:57">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B150" s="50" t="s">
+      <c r="B150" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C150" s="50">
+      <c r="C150" s="49">
         <v>2007</v>
       </c>
-      <c r="D150" s="46" t="s">
+      <c r="D150" s="45" t="s">
         <v>119</v>
       </c>
       <c r="E150" s="37" t="s">
@@ -18386,15 +18296,15 @@
       <c r="T150" s="34"/>
       <c r="U150" s="34"/>
       <c r="V150" s="34"/>
-      <c r="W150" s="53">
+      <c r="W150" s="51">
         <f t="shared" ref="W150:W155" si="32">I150/J150*1000</f>
         <v>384.61538461538464</v>
       </c>
-      <c r="X150" s="54">
+      <c r="X150" s="52">
         <f t="shared" si="29"/>
         <v>6.4102564102564097</v>
       </c>
-      <c r="Y150" s="47">
+      <c r="Y150" s="46">
         <f t="shared" si="30"/>
         <v>128.2051282051282</v>
       </c>
@@ -18456,17 +18366,17 @@
         <v>25.555555555555557</v>
       </c>
     </row>
-    <row r="151" spans="1:57">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B151" s="50" t="s">
+      <c r="B151" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C151" s="50">
+      <c r="C151" s="49">
         <v>2007</v>
       </c>
-      <c r="D151" s="46" t="s">
+      <c r="D151" s="45" t="s">
         <v>121</v>
       </c>
       <c r="E151" s="37" t="s">
@@ -18501,15 +18411,15 @@
       <c r="T151" s="34"/>
       <c r="U151" s="34"/>
       <c r="V151" s="34"/>
-      <c r="W151" s="53">
+      <c r="W151" s="51">
         <f t="shared" si="32"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X151" s="54">
+      <c r="X151" s="52">
         <f t="shared" si="29"/>
         <v>4.8076923076923084</v>
       </c>
-      <c r="Y151" s="47">
+      <c r="Y151" s="46">
         <f t="shared" si="30"/>
         <v>96.15384615384616</v>
       </c>
@@ -18571,17 +18481,17 @@
         <v>25.555555555555557</v>
       </c>
     </row>
-    <row r="152" spans="1:57">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B152" s="50" t="s">
+      <c r="B152" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C152" s="50">
+      <c r="C152" s="49">
         <v>2007</v>
       </c>
-      <c r="D152" s="46" t="s">
+      <c r="D152" s="45" t="s">
         <v>122</v>
       </c>
       <c r="E152" s="37" t="s">
@@ -18616,15 +18526,15 @@
       <c r="T152" s="34"/>
       <c r="U152" s="34"/>
       <c r="V152" s="34"/>
-      <c r="W152" s="53">
+      <c r="W152" s="51">
         <f t="shared" si="32"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X152" s="54">
+      <c r="X152" s="52">
         <f t="shared" si="29"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="Y152" s="47">
+      <c r="Y152" s="46">
         <f t="shared" si="30"/>
         <v>76.92307692307692</v>
       </c>
@@ -18686,17 +18596,17 @@
         <v>25.555555555555557</v>
       </c>
     </row>
-    <row r="153" spans="1:57">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B153" s="50" t="s">
+      <c r="B153" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="50">
+      <c r="C153" s="49">
         <v>2007</v>
       </c>
-      <c r="D153" s="46" t="s">
+      <c r="D153" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E153" s="37" t="s">
@@ -18731,15 +18641,15 @@
       <c r="T153" s="34"/>
       <c r="U153" s="34"/>
       <c r="V153" s="34"/>
-      <c r="W153" s="53">
+      <c r="W153" s="51">
         <f t="shared" si="32"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X153" s="54">
+      <c r="X153" s="52">
         <f t="shared" si="29"/>
         <v>3.2051282051282048</v>
       </c>
-      <c r="Y153" s="47">
+      <c r="Y153" s="46">
         <f t="shared" si="30"/>
         <v>64.102564102564102</v>
       </c>
@@ -18801,17 +18711,17 @@
         <v>25.555555555555557</v>
       </c>
     </row>
-    <row r="154" spans="1:57">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C154" s="50">
+      <c r="C154" s="49">
         <v>2007</v>
       </c>
-      <c r="D154" s="46" t="s">
+      <c r="D154" s="45" t="s">
         <v>124</v>
       </c>
       <c r="E154" s="37" t="s">
@@ -18846,15 +18756,15 @@
       <c r="T154" s="34"/>
       <c r="U154" s="34"/>
       <c r="V154" s="34"/>
-      <c r="W154" s="53">
+      <c r="W154" s="51">
         <f t="shared" si="32"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="X154" s="54">
+      <c r="X154" s="52">
         <f t="shared" si="29"/>
         <v>2.7472527472527473</v>
       </c>
-      <c r="Y154" s="47">
+      <c r="Y154" s="46">
         <f t="shared" si="30"/>
         <v>54.945054945054942</v>
       </c>
@@ -18916,17 +18826,17 @@
         <v>25.555555555555557</v>
       </c>
     </row>
-    <row r="155" spans="1:57">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B155" s="50" t="s">
+      <c r="B155" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="50">
+      <c r="C155" s="49">
         <v>2016</v>
       </c>
-      <c r="D155" s="46" t="s">
+      <c r="D155" s="45" t="s">
         <v>125</v>
       </c>
       <c r="E155" s="37" t="s">
@@ -18937,10 +18847,10 @@
       </c>
       <c r="G155" s="37"/>
       <c r="H155" s="37"/>
-      <c r="I155" s="48">
+      <c r="I155" s="47">
         <v>360</v>
       </c>
-      <c r="J155" s="48">
+      <c r="J155" s="47">
         <v>400</v>
       </c>
       <c r="K155" s="36">
@@ -18965,7 +18875,7 @@
       <c r="T155" s="34"/>
       <c r="U155" s="34"/>
       <c r="V155" s="34"/>
-      <c r="W155" s="53">
+      <c r="W155" s="51">
         <f t="shared" si="32"/>
         <v>900</v>
       </c>
@@ -18973,7 +18883,7 @@
         <f t="shared" si="29"/>
         <v>7.2</v>
       </c>
-      <c r="Y155" s="47">
+      <c r="Y155" s="46">
         <f t="shared" si="30"/>
         <v>144</v>
       </c>
@@ -19035,7 +18945,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="156" spans="1:57">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
         <v>129</v>
       </c>
@@ -19045,7 +18955,7 @@
       <c r="C156" s="40">
         <v>2020</v>
       </c>
-      <c r="D156" s="46" t="s">
+      <c r="D156" s="45" t="s">
         <v>163</v>
       </c>
       <c r="E156" s="37" t="s">
@@ -19095,7 +19005,7 @@
       <c r="Z156" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="AA156" s="48">
+      <c r="AA156" s="47">
         <v>98.98</v>
       </c>
       <c r="AB156" s="34"/>
@@ -19146,7 +19056,7 @@
         <v>24.417391304347824</v>
       </c>
     </row>
-    <row r="157" spans="1:57">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
         <v>129</v>
       </c>
@@ -19156,7 +19066,7 @@
       <c r="C157" s="40">
         <v>2020</v>
       </c>
-      <c r="D157" s="46" t="s">
+      <c r="D157" s="45" t="s">
         <v>164</v>
       </c>
       <c r="E157" s="37" t="s">
@@ -19206,7 +19116,7 @@
       <c r="Z157" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="AA157" s="48">
+      <c r="AA157" s="47">
         <v>99.98</v>
       </c>
       <c r="AB157" s="34"/>
@@ -19257,20 +19167,20 @@
         <v>36.655555555555551</v>
       </c>
     </row>
-    <row r="158" spans="1:57" ht="45">
+    <row r="158" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="51" t="s">
+      <c r="B158" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C158" s="51">
+      <c r="C158" s="42">
         <v>2018</v>
       </c>
-      <c r="D158" s="38" t="s">
+      <c r="D158" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E158" s="49" t="s">
+      <c r="E158" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F158" s="36" t="s">
@@ -19344,7 +19254,7 @@
       <c r="AK158" s="34"/>
       <c r="AL158" s="34"/>
       <c r="AM158" s="37"/>
-      <c r="AN158" s="52">
+      <c r="AN158" s="50">
         <v>25</v>
       </c>
       <c r="AO158" s="37" t="s">
@@ -19378,18 +19288,18 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="159" spans="1:57" ht="45">
+    <row r="159" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B159" s="51" t="s">
+      <c r="B159" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="51">
+      <c r="C159" s="42">
         <v>2018</v>
       </c>
-      <c r="D159" s="38"/>
-      <c r="E159" s="49" t="s">
+      <c r="D159" s="53"/>
+      <c r="E159" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F159" s="36" t="s">
@@ -19463,7 +19373,7 @@
       <c r="AK159" s="34"/>
       <c r="AL159" s="34"/>
       <c r="AM159" s="37"/>
-      <c r="AN159" s="52">
+      <c r="AN159" s="50">
         <v>50</v>
       </c>
       <c r="AO159" s="37" t="s">
@@ -19497,18 +19407,18 @@
         <v>16.823529411764707</v>
       </c>
     </row>
-    <row r="160" spans="1:57" ht="45">
+    <row r="160" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="51" t="s">
+      <c r="B160" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C160" s="51">
+      <c r="C160" s="42">
         <v>2018</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="49" t="s">
+      <c r="D160" s="53"/>
+      <c r="E160" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F160" s="36" t="s">
@@ -19582,7 +19492,7 @@
       <c r="AK160" s="34"/>
       <c r="AL160" s="34"/>
       <c r="AM160" s="37"/>
-      <c r="AN160" s="52">
+      <c r="AN160" s="50">
         <v>100</v>
       </c>
       <c r="AO160" s="37" t="s">
@@ -19616,18 +19526,18 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="161" spans="1:57" ht="45">
+    <row r="161" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B161" s="51" t="s">
+      <c r="B161" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C161" s="51">
+      <c r="C161" s="42">
         <v>2018</v>
       </c>
-      <c r="D161" s="38"/>
-      <c r="E161" s="49" t="s">
+      <c r="D161" s="53"/>
+      <c r="E161" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F161" s="36" t="s">
@@ -19701,7 +19611,7 @@
       <c r="AK161" s="34"/>
       <c r="AL161" s="34"/>
       <c r="AM161" s="37"/>
-      <c r="AN161" s="52">
+      <c r="AN161" s="50">
         <v>150</v>
       </c>
       <c r="AO161" s="37" t="s">
@@ -19733,18 +19643,18 @@
         <v>4.0136054421768712</v>
       </c>
     </row>
-    <row r="162" spans="1:57" ht="45">
+    <row r="162" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="51" t="s">
+      <c r="B162" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C162" s="51">
+      <c r="C162" s="42">
         <v>2018</v>
       </c>
-      <c r="D162" s="38"/>
-      <c r="E162" s="49" t="s">
+      <c r="D162" s="53"/>
+      <c r="E162" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F162" s="36" t="s">
@@ -19818,7 +19728,7 @@
       <c r="AK162" s="34"/>
       <c r="AL162" s="34"/>
       <c r="AM162" s="37"/>
-      <c r="AN162" s="52">
+      <c r="AN162" s="50">
         <v>200</v>
       </c>
       <c r="AO162" s="37" t="s">
@@ -19850,18 +19760,18 @@
         <v>1.8902439024390245</v>
       </c>
     </row>
-    <row r="163" spans="1:57" ht="45">
+    <row r="163" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="51">
+      <c r="C163" s="42">
         <v>2018</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="49" t="s">
+      <c r="D163" s="53"/>
+      <c r="E163" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F163" s="36" t="s">
@@ -19935,7 +19845,7 @@
       <c r="AK163" s="34"/>
       <c r="AL163" s="34"/>
       <c r="AM163" s="37"/>
-      <c r="AN163" s="52">
+      <c r="AN163" s="50">
         <v>250</v>
       </c>
       <c r="AO163" s="37" t="s">
@@ -19967,18 +19877,18 @@
         <v>0.55016181229773464</v>
       </c>
     </row>
-    <row r="164" spans="1:57" ht="45">
+    <row r="164" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C164" s="51">
+      <c r="C164" s="42">
         <v>2018</v>
       </c>
-      <c r="D164" s="38"/>
-      <c r="E164" s="49" t="s">
+      <c r="D164" s="53"/>
+      <c r="E164" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F164" s="36" t="s">
@@ -20052,7 +19962,7 @@
       <c r="AK164" s="34"/>
       <c r="AL164" s="34"/>
       <c r="AM164" s="37"/>
-      <c r="AN164" s="52">
+      <c r="AN164" s="50">
         <v>300</v>
       </c>
       <c r="AO164" s="37" t="s">
@@ -20084,18 +19994,18 @@
         <v>7.2463768115942032E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:57" ht="45">
+    <row r="165" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B165" s="51" t="s">
+      <c r="B165" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C165" s="51">
+      <c r="C165" s="42">
         <v>2018</v>
       </c>
-      <c r="D165" s="38"/>
-      <c r="E165" s="49" t="s">
+      <c r="D165" s="53"/>
+      <c r="E165" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F165" s="36" t="s">
@@ -20169,7 +20079,7 @@
       <c r="AK165" s="34"/>
       <c r="AL165" s="34"/>
       <c r="AM165" s="37"/>
-      <c r="AN165" s="52">
+      <c r="AN165" s="50">
         <v>350</v>
       </c>
       <c r="AO165" s="37" t="s">
@@ -20201,18 +20111,18 @@
         <v>5.5762081784386623E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:57" ht="45">
+    <row r="166" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C166" s="51">
+      <c r="C166" s="42">
         <v>2018</v>
       </c>
-      <c r="D166" s="38"/>
-      <c r="E166" s="49" t="s">
+      <c r="D166" s="53"/>
+      <c r="E166" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F166" s="36" t="s">
@@ -20286,7 +20196,7 @@
       <c r="AK166" s="34"/>
       <c r="AL166" s="34"/>
       <c r="AM166" s="37"/>
-      <c r="AN166" s="52">
+      <c r="AN166" s="50">
         <v>400</v>
       </c>
       <c r="AO166" s="37" t="s">
@@ -20318,7 +20228,7 @@
         <v>3.484320557491289E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:57" ht="90">
+    <row r="167" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
         <v>154</v>
       </c>
@@ -20328,7 +20238,7 @@
       <c r="C167" s="40">
         <v>2018</v>
       </c>
-      <c r="D167" s="41" t="s">
+      <c r="D167" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E167" s="37" t="s">
@@ -20451,7 +20361,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="168" spans="1:57" ht="90">
+    <row r="168" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>154</v>
       </c>
@@ -20461,7 +20371,7 @@
       <c r="C168" s="40">
         <v>2018</v>
       </c>
-      <c r="D168" s="41" t="s">
+      <c r="D168" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E168" s="37" t="s">
@@ -20584,7 +20494,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="169" spans="1:57" ht="90">
+    <row r="169" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>154</v>
       </c>
@@ -20594,7 +20504,7 @@
       <c r="C169" s="40">
         <v>2018</v>
       </c>
-      <c r="D169" s="41" t="s">
+      <c r="D169" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E169" s="37" t="s">
@@ -20717,7 +20627,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="170" spans="1:57" ht="90">
+    <row r="170" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
         <v>154</v>
       </c>
@@ -20727,7 +20637,7 @@
       <c r="C170" s="40">
         <v>2018</v>
       </c>
-      <c r="D170" s="41" t="s">
+      <c r="D170" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E170" s="37" t="s">
@@ -20850,7 +20760,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="171" spans="1:57" ht="90">
+    <row r="171" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>154</v>
       </c>
@@ -20860,7 +20770,7 @@
       <c r="C171" s="40">
         <v>2018</v>
       </c>
-      <c r="D171" s="41" t="s">
+      <c r="D171" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E171" s="37" t="s">
@@ -20983,7 +20893,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="172" spans="1:57" ht="90">
+    <row r="172" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>154</v>
       </c>
@@ -20993,7 +20903,7 @@
       <c r="C172" s="40">
         <v>2018</v>
       </c>
-      <c r="D172" s="41" t="s">
+      <c r="D172" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E172" s="37" t="s">
@@ -21126,7 +21036,7 @@
         <v>5.1219512195121952</v>
       </c>
     </row>
-    <row r="173" spans="1:57" ht="90">
+    <row r="173" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>154</v>
       </c>
@@ -21136,7 +21046,7 @@
       <c r="C173" s="40">
         <v>2018</v>
       </c>
-      <c r="D173" s="41" t="s">
+      <c r="D173" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E173" s="37" t="s">
@@ -21269,7 +21179,7 @@
         <v>5.1219512195121952</v>
       </c>
     </row>
-    <row r="174" spans="1:57" ht="90">
+    <row r="174" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
         <v>154</v>
       </c>
@@ -21279,7 +21189,7 @@
       <c r="C174" s="40">
         <v>2018</v>
       </c>
-      <c r="D174" s="41" t="s">
+      <c r="D174" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E174" s="37" t="s">
@@ -21412,7 +21322,7 @@
         <v>5.1219512195121952</v>
       </c>
     </row>
-    <row r="175" spans="1:57" ht="90">
+    <row r="175" spans="1:57" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="40" t="s">
         <v>154</v>
       </c>
@@ -21422,7 +21332,7 @@
       <c r="C175" s="40">
         <v>2018</v>
       </c>
-      <c r="D175" s="41" t="s">
+      <c r="D175" s="38" t="s">
         <v>135</v>
       </c>
       <c r="E175" s="37" t="s">
@@ -21555,7 +21465,7 @@
         <v>5.1219512195121952</v>
       </c>
     </row>
-    <row r="176" spans="1:57">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
         <v>154</v>
       </c>
@@ -21565,7 +21475,7 @@
       <c r="C176" s="40">
         <v>2016</v>
       </c>
-      <c r="D176" s="46" t="s">
+      <c r="D176" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E176" s="37" t="s">
@@ -21674,7 +21584,7 @@
         <v>6.8518518518518521</v>
       </c>
     </row>
-    <row r="177" spans="1:57">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A177" s="40" t="s">
         <v>154</v>
       </c>
@@ -21684,7 +21594,7 @@
       <c r="C177" s="40">
         <v>2016</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="D177" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E177" s="37" t="s">
@@ -21803,7 +21713,7 @@
         <v>8.2384823848238486</v>
       </c>
     </row>
-    <row r="178" spans="1:57">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A178" s="40" t="s">
         <v>154</v>
       </c>
@@ -21813,7 +21723,7 @@
       <c r="C178" s="40">
         <v>2016</v>
       </c>
-      <c r="D178" s="46" t="s">
+      <c r="D178" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E178" s="37" t="s">
@@ -21932,7 +21842,7 @@
         <v>7.6904761904761907</v>
       </c>
     </row>
-    <row r="179" spans="1:57">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A179" s="40" t="s">
         <v>154</v>
       </c>
@@ -21942,7 +21852,7 @@
       <c r="C179" s="40">
         <v>2016</v>
       </c>
-      <c r="D179" s="46" t="s">
+      <c r="D179" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E179" s="37" t="s">
@@ -22065,7 +21975,7 @@
         <v>6.1818181818181817</v>
       </c>
     </row>
-    <row r="180" spans="1:57">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A180" s="40" t="s">
         <v>154</v>
       </c>
@@ -22075,7 +21985,7 @@
       <c r="C180" s="40">
         <v>2016</v>
       </c>
-      <c r="D180" s="46" t="s">
+      <c r="D180" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E180" s="37" t="s">
@@ -22184,7 +22094,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="181" spans="1:57">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A181" s="40" t="s">
         <v>154</v>
       </c>
@@ -22194,7 +22104,7 @@
       <c r="C181" s="40">
         <v>2016</v>
       </c>
-      <c r="D181" s="46" t="s">
+      <c r="D181" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E181" s="37" t="s">
@@ -22313,7 +22223,7 @@
         <v>11.473214285714286</v>
       </c>
     </row>
-    <row r="182" spans="1:57">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A182" s="40" t="s">
         <v>154</v>
       </c>
@@ -22323,7 +22233,7 @@
       <c r="C182" s="40">
         <v>2016</v>
       </c>
-      <c r="D182" s="46" t="s">
+      <c r="D182" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E182" s="37" t="s">
@@ -22442,7 +22352,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="183" spans="1:57">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A183" s="40" t="s">
         <v>154</v>
       </c>
@@ -22452,7 +22362,7 @@
       <c r="C183" s="40">
         <v>2016</v>
       </c>
-      <c r="D183" s="46" t="s">
+      <c r="D183" s="45" t="s">
         <v>140</v>
       </c>
       <c r="E183" s="37" t="s">
@@ -22575,7 +22485,7 @@
         <v>7.0816326530612246</v>
       </c>
     </row>
-    <row r="184" spans="1:57">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
         <v>154</v>
       </c>
@@ -22585,7 +22495,7 @@
       <c r="C184" s="40">
         <v>2015</v>
       </c>
-      <c r="D184" s="46" t="s">
+      <c r="D184" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E184" s="37" t="s">
@@ -22599,7 +22509,7 @@
       <c r="I184" s="34">
         <v>180</v>
       </c>
-      <c r="J184" s="53">
+      <c r="J184" s="51">
         <f>50/150*10^3</f>
         <v>333.33333333333331</v>
       </c>
@@ -22699,7 +22609,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="185" spans="1:57">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A185" s="40" t="s">
         <v>154</v>
       </c>
@@ -22709,7 +22619,7 @@
       <c r="C185" s="40">
         <v>2015</v>
       </c>
-      <c r="D185" s="46" t="s">
+      <c r="D185" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E185" s="37" t="s">
@@ -22723,7 +22633,7 @@
       <c r="I185" s="34">
         <v>180</v>
       </c>
-      <c r="J185" s="53">
+      <c r="J185" s="51">
         <f>50/150*10^3</f>
         <v>333.33333333333331</v>
       </c>
@@ -22819,7 +22729,7 @@
         <v>2.1739130434782608</v>
       </c>
     </row>
-    <row r="186" spans="1:57">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A186" s="40" t="s">
         <v>154</v>
       </c>
@@ -22829,7 +22739,7 @@
       <c r="C186" s="40">
         <v>2020</v>
       </c>
-      <c r="D186" s="46" t="s">
+      <c r="D186" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E186" s="37" t="s">
@@ -22909,7 +22819,7 @@
       <c r="AR186" s="34">
         <v>4</v>
       </c>
-      <c r="AS186" s="53">
+      <c r="AS186" s="51">
         <v>615.30899999999997</v>
       </c>
       <c r="AT186" s="34">
@@ -22934,7 +22844,7 @@
         <v>4.8789148936170204</v>
       </c>
     </row>
-    <row r="187" spans="1:57">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A187" s="40" t="s">
         <v>154</v>
       </c>
@@ -22944,7 +22854,7 @@
       <c r="C187" s="40">
         <v>2020</v>
       </c>
-      <c r="D187" s="46" t="s">
+      <c r="D187" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E187" s="37" t="s">
@@ -23024,7 +22934,7 @@
       <c r="AR187" s="34">
         <v>15</v>
       </c>
-      <c r="AS187" s="53">
+      <c r="AS187" s="51">
         <v>654.81500000000005</v>
       </c>
       <c r="AT187" s="34">
@@ -23049,7 +22959,7 @@
         <v>3.3877343750000009</v>
       </c>
     </row>
-    <row r="188" spans="1:57">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A188" s="40" t="s">
         <v>154</v>
       </c>
@@ -23059,7 +22969,7 @@
       <c r="C188" s="40">
         <v>2020</v>
       </c>
-      <c r="D188" s="46" t="s">
+      <c r="D188" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E188" s="37" t="s">
@@ -23139,7 +23049,7 @@
       <c r="AR188" s="34">
         <v>2</v>
       </c>
-      <c r="AS188" s="53">
+      <c r="AS188" s="51">
         <v>670</v>
       </c>
       <c r="AT188" s="34">
@@ -23164,7 +23074,7 @@
         <v>3.9166666666666665</v>
       </c>
     </row>
-    <row r="189" spans="1:57">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A189" s="40" t="s">
         <v>154</v>
       </c>
@@ -23174,7 +23084,7 @@
       <c r="C189" s="40">
         <v>2020</v>
       </c>
-      <c r="D189" s="46" t="s">
+      <c r="D189" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E189" s="37" t="s">
@@ -23254,7 +23164,7 @@
       <c r="AR189" s="34">
         <v>4</v>
       </c>
-      <c r="AS189" s="53">
+      <c r="AS189" s="51">
         <v>692.346</v>
       </c>
       <c r="AT189" s="34">
@@ -23279,7 +23189,7 @@
         <v>4.0972</v>
       </c>
     </row>
-    <row r="190" spans="1:57">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A190" s="40" t="s">
         <v>154</v>
       </c>
@@ -23289,7 +23199,7 @@
       <c r="C190" s="40">
         <v>2020</v>
       </c>
-      <c r="D190" s="46" t="s">
+      <c r="D190" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E190" s="37" t="s">
@@ -23369,7 +23279,7 @@
       <c r="AR190" s="34">
         <v>20</v>
       </c>
-      <c r="AS190" s="53">
+      <c r="AS190" s="51">
         <v>708.14800000000002</v>
       </c>
       <c r="AT190" s="34">
@@ -23394,7 +23304,7 @@
         <v>4.5429600000000008</v>
       </c>
     </row>
-    <row r="191" spans="1:57">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A191" s="40" t="s">
         <v>154</v>
       </c>
@@ -23404,7 +23314,7 @@
       <c r="C191" s="40">
         <v>2020</v>
       </c>
-      <c r="D191" s="46" t="s">
+      <c r="D191" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E191" s="37" t="s">
@@ -23484,7 +23394,7 @@
       <c r="AR191" s="34">
         <v>36</v>
       </c>
-      <c r="AS191" s="53">
+      <c r="AS191" s="51">
         <v>694.32100000000003</v>
       </c>
       <c r="AT191" s="34">
@@ -23509,7 +23419,7 @@
         <v>7.9569487179487188</v>
       </c>
     </row>
-    <row r="192" spans="1:57">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A192" s="40" t="s">
         <v>154</v>
       </c>
@@ -23519,7 +23429,7 @@
       <c r="C192" s="40">
         <v>2020</v>
       </c>
-      <c r="D192" s="46" t="s">
+      <c r="D192" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E192" s="37" t="s">
@@ -23599,7 +23509,7 @@
       <c r="AR192" s="34">
         <v>36</v>
       </c>
-      <c r="AS192" s="53">
+      <c r="AS192" s="51">
         <v>533.33299999999997</v>
       </c>
       <c r="AT192" s="34">
@@ -23624,7 +23534,7 @@
         <v>16.592555555555553</v>
       </c>
     </row>
-    <row r="193" spans="1:57">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A193" s="40" t="s">
         <v>154</v>
       </c>
@@ -23634,7 +23544,7 @@
       <c r="C193" s="40">
         <v>2020</v>
       </c>
-      <c r="D193" s="46" t="s">
+      <c r="D193" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E193" s="37" t="s">
@@ -23714,7 +23624,7 @@
       <c r="AR193" s="34">
         <v>2</v>
       </c>
-      <c r="AS193" s="53">
+      <c r="AS193" s="51">
         <v>453.33300000000003</v>
       </c>
       <c r="AT193" s="34">
@@ -23739,7 +23649,7 @@
         <v>21.047571428571434</v>
       </c>
     </row>
-    <row r="194" spans="1:57">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A194" s="40" t="s">
         <v>154</v>
       </c>
@@ -23749,7 +23659,7 @@
       <c r="C194" s="40">
         <v>2020</v>
       </c>
-      <c r="D194" s="46" t="s">
+      <c r="D194" s="45" t="s">
         <v>149</v>
       </c>
       <c r="E194" s="37" t="s">
@@ -23854,7 +23764,7 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="195" spans="1:57">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A195" s="40" t="s">
         <v>154</v>
       </c>
@@ -23864,7 +23774,7 @@
       <c r="C195" s="40">
         <v>2020</v>
       </c>
-      <c r="D195" s="46" t="s">
+      <c r="D195" s="45" t="s">
         <v>149</v>
       </c>
       <c r="E195" s="37" t="s">
@@ -23954,7 +23864,7 @@
       <c r="AR195" s="34">
         <v>3</v>
       </c>
-      <c r="AS195" s="53">
+      <c r="AS195" s="51">
         <v>695</v>
       </c>
       <c r="AT195" s="34">
@@ -23979,7 +23889,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="196" spans="1:57">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A196" s="40" t="s">
         <v>154</v>
       </c>
@@ -23989,7 +23899,7 @@
       <c r="C196" s="40">
         <v>2019</v>
       </c>
-      <c r="D196" s="46" t="s">
+      <c r="D196" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E196" s="37" t="s">
@@ -24073,7 +23983,7 @@
       <c r="AR196" s="34">
         <v>35</v>
       </c>
-      <c r="AS196" s="53">
+      <c r="AS196" s="51">
         <v>751</v>
       </c>
       <c r="AT196" s="34">
@@ -24098,7 +24008,7 @@
         <v>8.5476190476190474</v>
       </c>
     </row>
-    <row r="197" spans="1:57">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A197" s="40" t="s">
         <v>154</v>
       </c>
@@ -24108,7 +24018,7 @@
       <c r="C197" s="40">
         <v>2019</v>
       </c>
-      <c r="D197" s="46" t="s">
+      <c r="D197" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E197" s="37" t="s">
@@ -24192,7 +24102,7 @@
       <c r="AR197" s="34">
         <v>30</v>
       </c>
-      <c r="AS197" s="53">
+      <c r="AS197" s="51">
         <v>815</v>
       </c>
       <c r="AT197" s="34">
@@ -24217,7 +24127,7 @@
         <v>8.0749999999999993</v>
       </c>
     </row>
-    <row r="198" spans="1:57">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A198" s="40" t="s">
         <v>154</v>
       </c>
@@ -24227,7 +24137,7 @@
       <c r="C198" s="40">
         <v>2019</v>
       </c>
-      <c r="D198" s="46" t="s">
+      <c r="D198" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E198" s="37" t="s">
@@ -24311,7 +24221,7 @@
       <c r="AR198" s="34">
         <v>30</v>
       </c>
-      <c r="AS198" s="53">
+      <c r="AS198" s="51">
         <v>742</v>
       </c>
       <c r="AT198" s="34">
@@ -24336,7 +24246,7 @@
         <v>6.9523809523809526</v>
       </c>
     </row>
-    <row r="199" spans="1:57">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A199" s="40" t="s">
         <v>154</v>
       </c>
@@ -24346,7 +24256,7 @@
       <c r="C199" s="40">
         <v>2019</v>
       </c>
-      <c r="D199" s="46" t="s">
+      <c r="D199" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E199" s="37" t="s">
@@ -24430,7 +24340,7 @@
       <c r="AR199" s="34">
         <v>10</v>
       </c>
-      <c r="AS199" s="53">
+      <c r="AS199" s="51">
         <v>798</v>
       </c>
       <c r="AT199" s="34">
@@ -24455,7 +24365,7 @@
         <v>7.5476190476190474</v>
       </c>
     </row>
-    <row r="200" spans="1:57">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A200" s="40" t="s">
         <v>154</v>
       </c>
@@ -24465,7 +24375,7 @@
       <c r="C200" s="40">
         <v>2019</v>
       </c>
-      <c r="D200" s="46" t="s">
+      <c r="D200" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E200" s="37" t="s">
@@ -24549,7 +24459,7 @@
       <c r="AR200" s="34">
         <v>10</v>
       </c>
-      <c r="AS200" s="53">
+      <c r="AS200" s="51">
         <v>624</v>
       </c>
       <c r="AT200" s="34">
@@ -24574,7 +24484,7 @@
         <v>3.6896551724137931</v>
       </c>
     </row>
-    <row r="201" spans="1:57">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A201" s="40" t="s">
         <v>154</v>
       </c>
@@ -24584,7 +24494,7 @@
       <c r="C201" s="40">
         <v>2019</v>
       </c>
-      <c r="D201" s="46" t="s">
+      <c r="D201" s="45" t="s">
         <v>151</v>
       </c>
       <c r="E201" s="37" t="s">
@@ -24668,7 +24578,7 @@
       <c r="AR201" s="34">
         <v>10</v>
       </c>
-      <c r="AS201" s="53">
+      <c r="AS201" s="51">
         <v>626</v>
       </c>
       <c r="AT201" s="34">
@@ -24693,7 +24603,7 @@
         <v>3.8596491228070176</v>
       </c>
     </row>
-    <row r="202" spans="1:57">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A202" s="40" t="s">
         <v>154</v>
       </c>
@@ -24703,7 +24613,7 @@
       <c r="C202" s="40">
         <v>2019</v>
       </c>
-      <c r="D202" s="46" t="s">
+      <c r="D202" s="45" t="s">
         <v>166</v>
       </c>
       <c r="E202" s="37" t="s">
@@ -24781,7 +24691,7 @@
         <v>715</v>
       </c>
       <c r="AR202" s="34"/>
-      <c r="AS202" s="53">
+      <c r="AS202" s="51">
         <v>890</v>
       </c>
       <c r="AT202" s="34"/>
@@ -24802,7 +24712,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="203" spans="1:57">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A203" s="40" t="s">
         <v>154</v>
       </c>
@@ -24812,7 +24722,7 @@
       <c r="C203" s="40">
         <v>2019</v>
       </c>
-      <c r="D203" s="46" t="s">
+      <c r="D203" s="45" t="s">
         <v>166</v>
       </c>
       <c r="E203" s="37" t="s">
@@ -24890,7 +24800,7 @@
         <v>725</v>
       </c>
       <c r="AR203" s="34"/>
-      <c r="AS203" s="53">
+      <c r="AS203" s="51">
         <v>920</v>
       </c>
       <c r="AT203" s="34"/>
@@ -24911,7 +24821,7 @@
         <v>10.263157894736842</v>
       </c>
     </row>
-    <row r="204" spans="1:57">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A204" s="40" t="s">
         <v>154</v>
       </c>
@@ -24921,7 +24831,7 @@
       <c r="C204" s="40">
         <v>2019</v>
       </c>
-      <c r="D204" s="46" t="s">
+      <c r="D204" s="45" t="s">
         <v>166</v>
       </c>
       <c r="E204" s="37" t="s">
@@ -24999,7 +24909,7 @@
         <v>750</v>
       </c>
       <c r="AR204" s="34"/>
-      <c r="AS204" s="53">
+      <c r="AS204" s="51">
         <v>950</v>
       </c>
       <c r="AT204" s="34"/>
@@ -25020,7 +24930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:57">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A205" s="40" t="s">
         <v>154</v>
       </c>
@@ -25030,7 +24940,7 @@
       <c r="C205" s="40">
         <v>2019</v>
       </c>
-      <c r="D205" s="46" t="s">
+      <c r="D205" s="45" t="s">
         <v>166</v>
       </c>
       <c r="E205" s="37" t="s">
@@ -25108,7 +25018,7 @@
         <v>750</v>
       </c>
       <c r="AR205" s="34"/>
-      <c r="AS205" s="53">
+      <c r="AS205" s="51">
         <v>960</v>
       </c>
       <c r="AT205" s="34"/>
@@ -25129,7 +25039,7 @@
         <v>9.545454545454545</v>
       </c>
     </row>
-    <row r="206" spans="1:57">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A206" s="40" t="s">
         <v>154</v>
       </c>
@@ -25139,7 +25049,7 @@
       <c r="C206" s="40">
         <v>2019</v>
       </c>
-      <c r="D206" s="46" t="s">
+      <c r="D206" s="45" t="s">
         <v>166</v>
       </c>
       <c r="E206" s="37" t="s">
@@ -25217,7 +25127,7 @@
         <v>715</v>
       </c>
       <c r="AR206" s="34"/>
-      <c r="AS206" s="53">
+      <c r="AS206" s="51">
         <v>940</v>
       </c>
       <c r="AT206" s="34"/>
@@ -25238,7 +25148,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="207" spans="1:57">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A207" s="40" t="s">
         <v>154</v>
       </c>
@@ -25248,7 +25158,7 @@
       <c r="C207" s="40">
         <v>2020</v>
       </c>
-      <c r="D207" s="46" t="s">
+      <c r="D207" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E207" s="37" t="s">
@@ -25352,7 +25262,7 @@
         <v>5.1382797039767931</v>
       </c>
     </row>
-    <row r="208" spans="1:57">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A208" s="40" t="s">
         <v>154</v>
       </c>
@@ -25362,7 +25272,7 @@
       <c r="C208" s="40">
         <v>2020</v>
       </c>
-      <c r="D208" s="46" t="s">
+      <c r="D208" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E208" s="37" t="s">
@@ -25466,7 +25376,7 @@
         <v>7.5362809257781347</v>
       </c>
     </row>
-    <row r="209" spans="1:57">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A209" s="40" t="s">
         <v>154</v>
       </c>
@@ -25476,7 +25386,7 @@
       <c r="C209" s="40">
         <v>2020</v>
       </c>
-      <c r="D209" s="46" t="s">
+      <c r="D209" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E209" s="37" t="s">
@@ -25590,7 +25500,7 @@
         <v>7.6831045737023285</v>
       </c>
     </row>
-    <row r="210" spans="1:57">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
         <v>154</v>
       </c>
@@ -25600,7 +25510,7 @@
       <c r="C210" s="40">
         <v>2020</v>
       </c>
-      <c r="D210" s="46" t="s">
+      <c r="D210" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E210" s="37" t="s">
@@ -25714,7 +25624,7 @@
         <v>8.7331348980936578</v>
       </c>
     </row>
-    <row r="211" spans="1:57">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
         <v>154</v>
       </c>
@@ -25724,7 +25634,7 @@
       <c r="C211" s="40">
         <v>2020</v>
       </c>
-      <c r="D211" s="46" t="s">
+      <c r="D211" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E211" s="37" t="s">
@@ -25829,7 +25739,7 @@
       <c r="AX211" s="34"/>
       <c r="AY211" s="34"/>
       <c r="AZ211" s="34"/>
-      <c r="BA211" s="52"/>
+      <c r="BA211" s="50"/>
       <c r="BB211" s="34"/>
       <c r="BC211" s="34"/>
       <c r="BD211" s="34"/>
@@ -25838,7 +25748,7 @@
         <v>6.7683459602942007</v>
       </c>
     </row>
-    <row r="212" spans="1:57">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
         <v>154</v>
       </c>
@@ -25848,7 +25758,7 @@
       <c r="C212" s="40">
         <v>2020</v>
       </c>
-      <c r="D212" s="46" t="s">
+      <c r="D212" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E212" s="37" t="s">
@@ -25962,7 +25872,7 @@
         <v>9.2255365010936039</v>
       </c>
     </row>
-    <row r="213" spans="1:57">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
         <v>154</v>
       </c>
@@ -25972,7 +25882,7 @@
       <c r="C213" s="40">
         <v>2020</v>
       </c>
-      <c r="D213" s="46" t="s">
+      <c r="D213" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E213" s="37" t="s">
@@ -26076,7 +25986,7 @@
         <v>5.4958735282250668</v>
       </c>
     </row>
-    <row r="214" spans="1:57">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
         <v>154</v>
       </c>
@@ -26086,7 +25996,7 @@
       <c r="C214" s="40">
         <v>2020</v>
       </c>
-      <c r="D214" s="46" t="s">
+      <c r="D214" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E214" s="37" t="s">
@@ -26190,7 +26100,7 @@
         <v>7.7294754593059398</v>
       </c>
     </row>
-    <row r="215" spans="1:57">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A215" s="40" t="s">
         <v>154</v>
       </c>
@@ -26200,7 +26110,7 @@
       <c r="C215" s="40">
         <v>2020</v>
       </c>
-      <c r="D215" s="46" t="s">
+      <c r="D215" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E215" s="37" t="s">
@@ -26314,7 +26224,7 @@
         <v>6.5998977156495062</v>
       </c>
     </row>
-    <row r="216" spans="1:57">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
         <v>154</v>
       </c>
@@ -26324,7 +26234,7 @@
       <c r="C216" s="40">
         <v>2020</v>
       </c>
-      <c r="D216" s="46" t="s">
+      <c r="D216" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E216" s="37" t="s">
@@ -26438,7 +26348,7 @@
         <v>6.8601094397508993</v>
       </c>
     </row>
-    <row r="217" spans="1:57">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A217" s="40" t="s">
         <v>154</v>
       </c>
@@ -26448,7 +26358,7 @@
       <c r="C217" s="40">
         <v>2020</v>
       </c>
-      <c r="D217" s="46" t="s">
+      <c r="D217" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E217" s="37" t="s">
@@ -26562,7 +26472,7 @@
         <v>5.675610985134794</v>
       </c>
     </row>
-    <row r="218" spans="1:57">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A218" s="40" t="s">
         <v>154</v>
       </c>
@@ -26572,7 +26482,7 @@
       <c r="C218" s="40">
         <v>2020</v>
       </c>
-      <c r="D218" s="46" t="s">
+      <c r="D218" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E218" s="37" t="s">
@@ -26686,7 +26596,7 @@
         <v>11.736520488856938</v>
       </c>
     </row>
-    <row r="219" spans="1:57">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A219" s="40" t="s">
         <v>154</v>
       </c>
@@ -26696,7 +26606,7 @@
       <c r="C219" s="40">
         <v>2020</v>
       </c>
-      <c r="D219" s="46" t="s">
+      <c r="D219" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E219" s="37" t="s">
@@ -26800,7 +26710,7 @@
         <v>9.1717039863440064</v>
       </c>
     </row>
-    <row r="220" spans="1:57">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A220" s="40" t="s">
         <v>154</v>
       </c>
@@ -26810,7 +26720,7 @@
       <c r="C220" s="40">
         <v>2020</v>
       </c>
-      <c r="D220" s="46" t="s">
+      <c r="D220" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E220" s="37" t="s">
@@ -26914,7 +26824,7 @@
         <v>15.366616741554328</v>
       </c>
     </row>
-    <row r="221" spans="1:57">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A221" s="40" t="s">
         <v>154</v>
       </c>
@@ -26924,7 +26834,7 @@
       <c r="C221" s="40">
         <v>2020</v>
       </c>
-      <c r="D221" s="46" t="s">
+      <c r="D221" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E221" s="37" t="s">
@@ -27038,7 +26948,7 @@
         <v>7.4352609308885738</v>
       </c>
     </row>
-    <row r="222" spans="1:57">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A222" s="40" t="s">
         <v>154</v>
       </c>
@@ -27048,7 +26958,7 @@
       <c r="C222" s="40">
         <v>2020</v>
       </c>
-      <c r="D222" s="46" t="s">
+      <c r="D222" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E222" s="37" t="s">
@@ -27162,7 +27072,7 @@
         <v>10.504650796153239</v>
       </c>
     </row>
-    <row r="223" spans="1:57">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A223" s="40" t="s">
         <v>154</v>
       </c>
@@ -27172,7 +27082,7 @@
       <c r="C223" s="40">
         <v>2020</v>
       </c>
-      <c r="D223" s="46" t="s">
+      <c r="D223" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E223" s="37" t="s">
@@ -27286,7 +27196,7 @@
         <v>5.9899163651462111</v>
       </c>
     </row>
-    <row r="224" spans="1:57">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A224" s="40" t="s">
         <v>154</v>
       </c>
@@ -27296,7 +27206,7 @@
       <c r="C224" s="40">
         <v>2020</v>
       </c>
-      <c r="D224" s="46" t="s">
+      <c r="D224" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E224" s="37" t="s">
@@ -27410,7 +27320,7 @@
         <v>18.272002964609964</v>
       </c>
     </row>
-    <row r="225" spans="1:57">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A225" s="40" t="s">
         <v>154</v>
       </c>
@@ -27420,7 +27330,7 @@
       <c r="C225" s="40">
         <v>2020</v>
       </c>
-      <c r="D225" s="46" t="s">
+      <c r="D225" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E225" s="37" t="s">
@@ -27524,7 +27434,7 @@
         <v>1.9579588993382104</v>
       </c>
     </row>
-    <row r="226" spans="1:57">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A226" s="40" t="s">
         <v>154</v>
       </c>
@@ -27534,7 +27444,7 @@
       <c r="C226" s="40">
         <v>2020</v>
       </c>
-      <c r="D226" s="46" t="s">
+      <c r="D226" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E226" s="37" t="s">
@@ -27638,7 +27548,7 @@
         <v>2.3704974271012005</v>
       </c>
     </row>
-    <row r="227" spans="1:57">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A227" s="40" t="s">
         <v>154</v>
       </c>
@@ -27648,7 +27558,7 @@
       <c r="C227" s="40">
         <v>2020</v>
       </c>
-      <c r="D227" s="46" t="s">
+      <c r="D227" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E227" s="37" t="s">
@@ -27762,7 +27672,7 @@
         <v>2.8353284275492552</v>
       </c>
     </row>
-    <row r="228" spans="1:57">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A228" s="40" t="s">
         <v>154</v>
       </c>
@@ -27772,7 +27682,7 @@
       <c r="C228" s="40">
         <v>2020</v>
       </c>
-      <c r="D228" s="46" t="s">
+      <c r="D228" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E228" s="37" t="s">
@@ -27886,7 +27796,7 @@
         <v>2.7630348293431979</v>
       </c>
     </row>
-    <row r="229" spans="1:57">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A229" s="40" t="s">
         <v>154</v>
       </c>
@@ -27896,7 +27806,7 @@
       <c r="C229" s="40">
         <v>2020</v>
       </c>
-      <c r="D229" s="46" t="s">
+      <c r="D229" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E229" s="37" t="s">
@@ -28010,7 +27920,7 @@
         <v>4.0236590845268196</v>
       </c>
     </row>
-    <row r="230" spans="1:57">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A230" s="40" t="s">
         <v>154</v>
       </c>
@@ -28020,7 +27930,7 @@
       <c r="C230" s="40">
         <v>2020</v>
       </c>
-      <c r="D230" s="46" t="s">
+      <c r="D230" s="45" t="s">
         <v>153</v>
       </c>
       <c r="E230" s="37" t="s">
@@ -28134,636 +28044,636 @@
         <v>8.1085816983675301</v>
       </c>
     </row>
-    <row r="231" spans="1:57">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="2"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:57">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE232" t="str">
         <f t="shared" ref="BE232:BE293" si="49">IF(COUNT(AS232,AQ232,AU232)=3, ((AS232-AQ232)/AU232), "")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:57">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE233" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:57">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE234" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:57">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE235" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:57">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE236" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:57">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE237" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:57">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE238" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:57">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE239" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:57">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.25">
       <c r="BE240" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="57:57">
+    <row r="241" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE241" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="57:57">
+    <row r="242" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE242" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="57:57">
+    <row r="243" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE243" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="57:57">
+    <row r="244" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE244" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="57:57">
+    <row r="245" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE245" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="57:57">
+    <row r="246" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE246" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="57:57">
+    <row r="247" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE247" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="57:57">
+    <row r="248" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE248" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="57:57">
+    <row r="249" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE249" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="57:57">
+    <row r="250" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE250" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="57:57">
+    <row r="251" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE251" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="57:57">
+    <row r="252" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE252" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="57:57">
+    <row r="253" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE253" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="57:57">
+    <row r="254" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE254" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="57:57">
+    <row r="255" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE255" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="57:57">
+    <row r="256" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE256" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="57:57">
+    <row r="257" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE257" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="57:57">
+    <row r="258" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE258" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="57:57">
+    <row r="259" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE259" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="57:57">
+    <row r="260" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE260" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="57:57">
+    <row r="261" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE261" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="57:57">
+    <row r="262" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE262" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="57:57">
+    <row r="263" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE263" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="57:57">
+    <row r="264" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE264" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="57:57">
+    <row r="265" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE265" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="57:57">
+    <row r="266" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE266" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="57:57">
+    <row r="267" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE267" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="57:57">
+    <row r="268" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE268" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="57:57">
+    <row r="269" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="57:57">
+    <row r="270" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE270" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="57:57">
+    <row r="271" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="57:57">
+    <row r="272" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE272" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="57:57">
+    <row r="273" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE273" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="57:57">
+    <row r="274" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE274" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="57:57">
+    <row r="275" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE275" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="57:57">
+    <row r="276" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE276" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="57:57">
+    <row r="277" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE277" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="57:57">
+    <row r="278" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE278" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="57:57">
+    <row r="279" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE279" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="57:57">
+    <row r="280" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE280" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="57:57">
+    <row r="281" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE281" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="57:57">
+    <row r="282" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE282" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="57:57">
+    <row r="283" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE283" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="57:57">
+    <row r="284" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE284" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="57:57">
+    <row r="285" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE285" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="57:57">
+    <row r="286" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE286" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="57:57">
+    <row r="287" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE287" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="57:57">
+    <row r="288" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE288" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="57:57">
+    <row r="289" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE289" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="57:57">
+    <row r="290" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE290" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="57:57">
+    <row r="291" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE291" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="57:57">
+    <row r="292" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE292" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="57:57">
+    <row r="293" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE293" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="57:57">
+    <row r="294" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE294" t="str">
         <f t="shared" ref="BE294:BE336" si="50">IF(COUNT(AS294,AQ294,AU294)=3, ((AS294-AQ294)/AU294), "")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="57:57">
+    <row r="295" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE295" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="57:57">
+    <row r="296" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE296" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="57:57">
+    <row r="297" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE297" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="57:57">
+    <row r="298" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE298" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="57:57">
+    <row r="299" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE299" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="57:57">
+    <row r="300" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE300" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="57:57">
+    <row r="301" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE301" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="57:57">
+    <row r="302" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE302" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="57:57">
+    <row r="303" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE303" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="57:57">
+    <row r="304" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE304" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="57:57">
+    <row r="305" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE305" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="57:57">
+    <row r="306" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE306" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="57:57">
+    <row r="307" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE307" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="57:57">
+    <row r="308" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE308" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="57:57">
+    <row r="309" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE309" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="57:57">
+    <row r="310" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE310" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="57:57">
+    <row r="311" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE311" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="57:57">
+    <row r="312" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE312" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="57:57">
+    <row r="313" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE313" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="57:57">
+    <row r="314" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE314" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="57:57">
+    <row r="315" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE315" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="57:57">
+    <row r="316" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE316" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="57:57">
+    <row r="317" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE317" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="57:57">
+    <row r="318" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE318" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="57:57">
+    <row r="319" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE319" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="57:57">
+    <row r="320" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE320" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="57:57">
+    <row r="321" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE321" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="57:57">
+    <row r="322" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE322" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="57:57">
+    <row r="323" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE323" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="57:57">
+    <row r="324" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE324" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="57:57">
+    <row r="325" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE325" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="57:57">
+    <row r="326" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE326" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="57:57">
+    <row r="327" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE327" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="57:57">
+    <row r="328" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE328" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="57:57">
+    <row r="329" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE329" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="57:57">
+    <row r="330" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE330" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="57:57">
+    <row r="331" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE331" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="57:57">
+    <row r="332" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE332" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="57:57">
+    <row r="333" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE333" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="57:57">
+    <row r="334" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE334" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="57:57">
+    <row r="335" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE335" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="57:57">
+    <row r="336" spans="57:57" x14ac:dyDescent="0.25">
       <c r="BE336" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -28772,6 +28682,9 @@
   </sheetData>
   <autoFilter ref="A1:BE230" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="D50:D61"/>
     <mergeCell ref="D62:D88"/>
     <mergeCell ref="D158:D166"/>
@@ -28779,9 +28692,6 @@
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="D36:D41"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1">
